--- a/state_results/Rivers/TamakiatStephensons_aaee89bde6.xlsx
+++ b/state_results/Rivers/TamakiatStephensons_aaee89bde6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U194"/>
+  <dimension ref="A1:U195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>3.45</v>
       </c>
       <c r="G2" t="n">
-        <v>3.53251342012683</v>
+        <v>3.50324585628222</v>
       </c>
       <c r="H2" t="n">
-        <v>8.83836644455323</v>
+        <v>10.1563582358668</v>
       </c>
       <c r="I2" t="n">
-        <v>8.139150000000001</v>
+        <v>9.22176</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>4.1</v>
       </c>
       <c r="M2" t="n">
-        <v>6.3</v>
+        <v>6.112</v>
       </c>
       <c r="N2" t="n">
-        <v>7.01835</v>
+        <v>6.676</v>
       </c>
       <c r="O2" t="n">
         <v>1860701</v>
@@ -651,7 +651,7 @@
         <v>0.008</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0090047404667652</v>
+        <v>0.0090111031853996</v>
       </c>
       <c r="H3" t="n">
         <v>0.018</v>
@@ -732,7 +732,7 @@
         <v>0.008</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0090047404667652</v>
+        <v>0.0090111031853996</v>
       </c>
       <c r="H4" t="n">
         <v>0.018</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00449</v>
+        <v>0.00442</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0067918134049641</v>
+        <v>0.0065462152225574</v>
       </c>
       <c r="H9" t="n">
         <v>0.0344681852524333</v>
@@ -1167,7 +1167,7 @@
         <v>0.00566</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00976</v>
+        <v>0.00878</v>
       </c>
       <c r="N9" t="n">
         <v>0.01844</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00449</v>
+        <v>0.00442</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0067918134049641</v>
+        <v>0.0065462152225574</v>
       </c>
       <c r="H10" t="n">
         <v>0.0344681852524333</v>
@@ -1248,7 +1248,7 @@
         <v>0.00566</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00976</v>
+        <v>0.00878</v>
       </c>
       <c r="N10" t="n">
         <v>0.01844</v>
@@ -1311,24 +1311,24 @@
         <v>0.4055</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5579166666666669</v>
+        <v>0.557944444444444</v>
       </c>
       <c r="H11" t="n">
         <v>1.851</v>
       </c>
       <c r="I11" t="n">
-        <v>1.711</v>
+        <v>1.7112</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.1565</v>
+        <v>0.15675</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9759</v>
+        <v>0.97609</v>
       </c>
       <c r="N11" t="n">
-        <v>1.49438</v>
+        <v>1.49407</v>
       </c>
       <c r="O11" t="n">
         <v>1860701</v>
@@ -1388,24 +1388,24 @@
         <v>0.4055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5579166666666669</v>
+        <v>0.557944444444444</v>
       </c>
       <c r="H12" t="n">
         <v>1.851</v>
       </c>
       <c r="I12" t="n">
-        <v>1.711</v>
+        <v>1.7112</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.1565</v>
+        <v>0.15675</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9759</v>
+        <v>0.97609</v>
       </c>
       <c r="N12" t="n">
-        <v>1.49438</v>
+        <v>1.49407</v>
       </c>
       <c r="O12" t="n">
         <v>1860701</v>
@@ -1623,13 +1623,13 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.99192897996221</v>
+        <v>2.97472951002634</v>
       </c>
       <c r="H15" t="n">
-        <v>8.83836644455323</v>
+        <v>10.1563582358668</v>
       </c>
       <c r="I15" t="n">
-        <v>7.58891</v>
+        <v>7.74088</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1640,7 +1640,7 @@
         <v>6</v>
       </c>
       <c r="N15" t="n">
-        <v>6.46251</v>
+        <v>6.3</v>
       </c>
       <c r="O15" t="n">
         <v>1860701</v>
@@ -1704,7 +1704,7 @@
         <v>0.008</v>
       </c>
       <c r="G16" t="n">
-        <v>0.008342556258096301</v>
+        <v>0.008357688577310099</v>
       </c>
       <c r="H16" t="n">
         <v>0.018</v>
@@ -1785,7 +1785,7 @@
         <v>0.008</v>
       </c>
       <c r="G17" t="n">
-        <v>0.008342556258096301</v>
+        <v>0.008357688577310099</v>
       </c>
       <c r="H17" t="n">
         <v>0.018</v>
@@ -2206,7 +2206,7 @@
         <v>0.00531</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0075330262781535</v>
+        <v>0.0073561874558213</v>
       </c>
       <c r="H22" t="n">
         <v>0.0344681852524333</v>
@@ -2217,7 +2217,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.008659999999999999</v>
+        <v>0.00729</v>
       </c>
       <c r="M22" t="n">
         <v>0.0113</v>
@@ -2287,7 +2287,7 @@
         <v>0.00531</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0075330262781535</v>
+        <v>0.0073561874558213</v>
       </c>
       <c r="H23" t="n">
         <v>0.0344681852524333</v>
@@ -2298,7 +2298,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.008659999999999999</v>
+        <v>0.00729</v>
       </c>
       <c r="M23" t="n">
         <v>0.0113</v>
@@ -2526,13 +2526,13 @@
         <v>0.582</v>
       </c>
       <c r="G26" t="n">
-        <v>0.583521739130435</v>
+        <v>0.5835543478260869</v>
       </c>
       <c r="H26" t="n">
         <v>1.851</v>
       </c>
       <c r="I26" t="n">
-        <v>1.651</v>
+        <v>1.6507</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -2603,13 +2603,13 @@
         <v>0.582</v>
       </c>
       <c r="G27" t="n">
-        <v>0.583521739130435</v>
+        <v>0.5835543478260869</v>
       </c>
       <c r="H27" t="n">
         <v>1.851</v>
       </c>
       <c r="I27" t="n">
-        <v>1.651</v>
+        <v>1.6507</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -2680,7 +2680,7 @@
         <v>0.015</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09362549120366109</v>
+        <v>0.09363150990596129</v>
       </c>
       <c r="H28" t="n">
         <v>2.267</v>
@@ -2757,7 +2757,7 @@
         <v>0.015</v>
       </c>
       <c r="G29" t="n">
-        <v>0.09362549120366109</v>
+        <v>0.09363150990596129</v>
       </c>
       <c r="H29" t="n">
         <v>2.267</v>
@@ -2919,13 +2919,13 @@
         <v>2.32</v>
       </c>
       <c r="G31" t="n">
-        <v>2.97330573907583</v>
+        <v>2.91736928342364</v>
       </c>
       <c r="H31" t="n">
-        <v>8.83836644455323</v>
+        <v>10.1563582358668</v>
       </c>
       <c r="I31" t="n">
-        <v>6.98356</v>
+        <v>6.3</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2933,10 +2933,10 @@
         <v>3.2</v>
       </c>
       <c r="M31" t="n">
-        <v>6</v>
+        <v>5.69429</v>
       </c>
       <c r="N31" t="n">
-        <v>6.43325</v>
+        <v>6.168</v>
       </c>
       <c r="O31" t="n">
         <v>1860701</v>
@@ -3000,7 +3000,7 @@
         <v>0.008</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0086854756529729</v>
+        <v>0.008697477147521801</v>
       </c>
       <c r="H32" t="n">
         <v>0.033</v>
@@ -3081,7 +3081,7 @@
         <v>0.008</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0086854756529729</v>
+        <v>0.008697477147521801</v>
       </c>
       <c r="H33" t="n">
         <v>0.033</v>
@@ -3579,7 +3579,7 @@
         <v>0.00499</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0068858250976801</v>
+        <v>0.0065973166938355</v>
       </c>
       <c r="H39" t="n">
         <v>0.0344681852524333</v>
@@ -3660,7 +3660,7 @@
         <v>0.00499</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0068858250976801</v>
+        <v>0.0065973166938355</v>
       </c>
       <c r="H40" t="n">
         <v>0.0344681852524333</v>
@@ -3896,21 +3896,21 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.474</v>
+        <v>0.47385</v>
       </c>
       <c r="G43" t="n">
-        <v>0.540068965517241</v>
+        <v>0.540101724137931</v>
       </c>
       <c r="H43" t="n">
         <v>1.851</v>
       </c>
       <c r="I43" t="n">
-        <v>1.5414</v>
+        <v>1.5411</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.1705</v>
+        <v>0.1706</v>
       </c>
       <c r="M43" t="n">
         <v>0.96652</v>
@@ -3973,21 +3973,21 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.474</v>
+        <v>0.47385</v>
       </c>
       <c r="G44" t="n">
-        <v>0.540068965517241</v>
+        <v>0.540101724137931</v>
       </c>
       <c r="H44" t="n">
         <v>1.851</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5414</v>
+        <v>1.5411</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.1705</v>
+        <v>0.1706</v>
       </c>
       <c r="M44" t="n">
         <v>0.96652</v>
@@ -4207,7 +4207,7 @@
         <v>0.015</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0781684930235933</v>
+        <v>0.07817326647714171</v>
       </c>
       <c r="H47" t="n">
         <v>2.267</v>
@@ -4284,7 +4284,7 @@
         <v>0.015</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0781684930235933</v>
+        <v>0.07817326647714171</v>
       </c>
       <c r="H48" t="n">
         <v>2.267</v>
@@ -4523,13 +4523,13 @@
         <v>1.96</v>
       </c>
       <c r="G51" t="n">
-        <v>2.64593577118505</v>
+        <v>2.54816557892004</v>
       </c>
       <c r="H51" t="n">
-        <v>8.83836644455323</v>
+        <v>9.50195240058048</v>
       </c>
       <c r="I51" t="n">
-        <v>8.056900000000001</v>
+        <v>5.99745</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -4537,10 +4537,10 @@
         <v>2.81</v>
       </c>
       <c r="M51" t="n">
-        <v>4.83477</v>
+        <v>4.6246</v>
       </c>
       <c r="N51" t="n">
-        <v>6.43983</v>
+        <v>5.51455</v>
       </c>
       <c r="O51" t="n">
         <v>1860701</v>
@@ -4604,7 +4604,7 @@
         <v>0.008</v>
       </c>
       <c r="G52" t="n">
-        <v>0.008995820480559099</v>
+        <v>0.009007821975108</v>
       </c>
       <c r="H52" t="n">
         <v>0.033</v>
@@ -4685,7 +4685,7 @@
         <v>0.008</v>
       </c>
       <c r="G53" t="n">
-        <v>0.008995820480559099</v>
+        <v>0.009007821975108</v>
       </c>
       <c r="H53" t="n">
         <v>0.033</v>
@@ -5180,10 +5180,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.00447</v>
+        <v>0.00419</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0062912512773378</v>
+        <v>0.0058177765918117</v>
       </c>
       <c r="H59" t="n">
         <v>0.0344681852524333</v>
@@ -5194,7 +5194,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>0.00488</v>
+        <v>0.00401</v>
       </c>
       <c r="M59" t="n">
         <v>0.00902</v>
@@ -5261,10 +5261,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.00447</v>
+        <v>0.00419</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0062912512773378</v>
+        <v>0.0058177765918117</v>
       </c>
       <c r="H60" t="n">
         <v>0.0344681852524333</v>
@@ -5275,7 +5275,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.00488</v>
+        <v>0.00401</v>
       </c>
       <c r="M60" t="n">
         <v>0.00902</v>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.4765</v>
+        <v>0.4762</v>
       </c>
       <c r="G64" t="n">
-        <v>0.5028965517241381</v>
+        <v>0.502905172413793</v>
       </c>
       <c r="H64" t="n">
         <v>1.413</v>
@@ -5591,10 +5591,10 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.178</v>
+        <v>0.17815</v>
       </c>
       <c r="M64" t="n">
-        <v>0.91124</v>
+        <v>0.91116</v>
       </c>
       <c r="N64" t="n">
         <v>1.03416</v>
@@ -5654,10 +5654,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.4765</v>
+        <v>0.4762</v>
       </c>
       <c r="G65" t="n">
-        <v>0.5028965517241381</v>
+        <v>0.502905172413793</v>
       </c>
       <c r="H65" t="n">
         <v>1.413</v>
@@ -5668,10 +5668,10 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.178</v>
+        <v>0.17815</v>
       </c>
       <c r="M65" t="n">
-        <v>0.91124</v>
+        <v>0.91116</v>
       </c>
       <c r="N65" t="n">
         <v>1.03416</v>
@@ -5888,7 +5888,7 @@
         <v>0.014</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0750995275063519</v>
+        <v>0.0751043009599003</v>
       </c>
       <c r="H68" t="n">
         <v>2.267</v>
@@ -5965,7 +5965,7 @@
         <v>0.014</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0750995275063519</v>
+        <v>0.0751043009599003</v>
       </c>
       <c r="H69" t="n">
         <v>2.267</v>
@@ -6204,13 +6204,13 @@
         <v>1.96</v>
       </c>
       <c r="G72" t="n">
-        <v>2.50549612987022</v>
+        <v>2.38800928536494</v>
       </c>
       <c r="H72" t="n">
-        <v>8.83836644455323</v>
+        <v>9.179600022759351</v>
       </c>
       <c r="I72" t="n">
-        <v>6.47519</v>
+        <v>4.8975</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -6218,10 +6218,10 @@
         <v>3.1</v>
       </c>
       <c r="M72" t="n">
-        <v>4.20514</v>
+        <v>4.2107</v>
       </c>
       <c r="N72" t="n">
-        <v>5.88571</v>
+        <v>4.75249</v>
       </c>
       <c r="O72" t="n">
         <v>1860701</v>
@@ -6285,7 +6285,7 @@
         <v>0.008</v>
       </c>
       <c r="G73" t="n">
-        <v>0.008811463178223801</v>
+        <v>0.0088213398794995</v>
       </c>
       <c r="H73" t="n">
         <v>0.033</v>
@@ -6366,7 +6366,7 @@
         <v>0.008</v>
       </c>
       <c r="G74" t="n">
-        <v>0.008811463178223801</v>
+        <v>0.0088213398794995</v>
       </c>
       <c r="H74" t="n">
         <v>0.033</v>
@@ -6861,10 +6861,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.00382</v>
+        <v>0.0033</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0059396300728162</v>
+        <v>0.0053029400461283</v>
       </c>
       <c r="H80" t="n">
         <v>0.0344681852524333</v>
@@ -6875,7 +6875,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.00388</v>
+        <v>0.00102</v>
       </c>
       <c r="M80" t="n">
         <v>0.0091</v>
@@ -6942,10 +6942,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.00382</v>
+        <v>0.0033</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0059396300728162</v>
+        <v>0.0053029400461283</v>
       </c>
       <c r="H81" t="n">
         <v>0.0344681852524333</v>
@@ -6956,7 +6956,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.00388</v>
+        <v>0.00102</v>
       </c>
       <c r="M81" t="n">
         <v>0.0091</v>
@@ -7026,7 +7026,7 @@
         <v>0.47</v>
       </c>
       <c r="G82" t="n">
-        <v>0.5007712681322291</v>
+        <v>0.500798807616213</v>
       </c>
       <c r="H82" t="n">
         <v>1.4</v>
@@ -7107,7 +7107,7 @@
         <v>0.47</v>
       </c>
       <c r="G83" t="n">
-        <v>0.5007712681322291</v>
+        <v>0.500798807616213</v>
       </c>
       <c r="H83" t="n">
         <v>1.4</v>
@@ -7258,10 +7258,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.477</v>
+        <v>0.4769</v>
       </c>
       <c r="G85" t="n">
-        <v>0.511173257630313</v>
+        <v>0.511202276408907</v>
       </c>
       <c r="H85" t="n">
         <v>1.413</v>
@@ -7272,13 +7272,13 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>0.165</v>
+        <v>0.16525</v>
       </c>
       <c r="M85" t="n">
-        <v>0.89682</v>
+        <v>0.89684</v>
       </c>
       <c r="N85" t="n">
-        <v>0.986</v>
+        <v>0.98591</v>
       </c>
       <c r="O85" t="n">
         <v>1860701</v>
@@ -7335,10 +7335,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.477</v>
+        <v>0.4769</v>
       </c>
       <c r="G86" t="n">
-        <v>0.511173257630313</v>
+        <v>0.511202276408907</v>
       </c>
       <c r="H86" t="n">
         <v>1.413</v>
@@ -7349,13 +7349,13 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>0.165</v>
+        <v>0.16525</v>
       </c>
       <c r="M86" t="n">
-        <v>0.89682</v>
+        <v>0.89684</v>
       </c>
       <c r="N86" t="n">
-        <v>0.986</v>
+        <v>0.98591</v>
       </c>
       <c r="O86" t="n">
         <v>1860701</v>
@@ -7569,7 +7569,7 @@
         <v>0.013</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0569368236503121</v>
+        <v>0.0569415161978681</v>
       </c>
       <c r="H89" t="n">
         <v>2.267</v>
@@ -7646,7 +7646,7 @@
         <v>0.013</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0569368236503121</v>
+        <v>0.0569415161978681</v>
       </c>
       <c r="H90" t="n">
         <v>2.267</v>
@@ -7885,13 +7885,13 @@
         <v>1.91</v>
       </c>
       <c r="G93" t="n">
-        <v>2.34354835603252</v>
+        <v>2.32527324234819</v>
       </c>
       <c r="H93" t="n">
-        <v>8.139497169773669</v>
+        <v>9.179600022759351</v>
       </c>
       <c r="I93" t="n">
-        <v>6.33103</v>
+        <v>4.9125</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -7902,7 +7902,7 @@
         <v>3.7126</v>
       </c>
       <c r="N93" t="n">
-        <v>4.833</v>
+        <v>4.75281</v>
       </c>
       <c r="O93" t="n">
         <v>1860701</v>
@@ -7966,7 +7966,7 @@
         <v>0.008</v>
       </c>
       <c r="G94" t="n">
-        <v>0.008915646921285301</v>
+        <v>0.008925371056980699</v>
       </c>
       <c r="H94" t="n">
         <v>0.033</v>
@@ -8047,7 +8047,7 @@
         <v>0.008</v>
       </c>
       <c r="G95" t="n">
-        <v>0.008915646921285301</v>
+        <v>0.008925371056980699</v>
       </c>
       <c r="H95" t="n">
         <v>0.033</v>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.00348</v>
+        <v>0.00224</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0048652666903329</v>
+        <v>0.004079395538104</v>
       </c>
       <c r="H101" t="n">
         <v>0.0210659745039018</v>
@@ -8556,10 +8556,10 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
-        <v>0.00343</v>
+        <v>0.00102</v>
       </c>
       <c r="M101" t="n">
-        <v>0.00851</v>
+        <v>0.00829</v>
       </c>
       <c r="N101" t="n">
         <v>0.01121</v>
@@ -8623,10 +8623,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.00348</v>
+        <v>0.00224</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0048652666903329</v>
+        <v>0.004079395538104</v>
       </c>
       <c r="H102" t="n">
         <v>0.0210659745039018</v>
@@ -8637,10 +8637,10 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.00343</v>
+        <v>0.00102</v>
       </c>
       <c r="M102" t="n">
-        <v>0.00851</v>
+        <v>0.00829</v>
       </c>
       <c r="N102" t="n">
         <v>0.01121</v>
@@ -8707,7 +8707,7 @@
         <v>0.46955</v>
       </c>
       <c r="G103" t="n">
-        <v>0.506875080330025</v>
+        <v>0.506902160822609</v>
       </c>
       <c r="H103" t="n">
         <v>1.51</v>
@@ -8788,7 +8788,7 @@
         <v>0.46955</v>
       </c>
       <c r="G104" t="n">
-        <v>0.506875080330025</v>
+        <v>0.506902160822609</v>
       </c>
       <c r="H104" t="n">
         <v>1.51</v>
@@ -8939,16 +8939,16 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.477</v>
+        <v>0.4768</v>
       </c>
       <c r="G106" t="n">
-        <v>0.516253703336474</v>
+        <v>0.516282238468758</v>
       </c>
       <c r="H106" t="n">
         <v>1.515</v>
       </c>
       <c r="I106" t="n">
-        <v>1.297</v>
+        <v>1.29715</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -8956,7 +8956,7 @@
         <v>0.15</v>
       </c>
       <c r="M106" t="n">
-        <v>0.9284</v>
+        <v>0.9281199999999999</v>
       </c>
       <c r="N106" t="n">
         <v>1.1323</v>
@@ -9016,16 +9016,16 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.477</v>
+        <v>0.4768</v>
       </c>
       <c r="G107" t="n">
-        <v>0.516253703336474</v>
+        <v>0.516282238468758</v>
       </c>
       <c r="H107" t="n">
         <v>1.515</v>
       </c>
       <c r="I107" t="n">
-        <v>1.297</v>
+        <v>1.29715</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -9033,7 +9033,7 @@
         <v>0.15</v>
       </c>
       <c r="M107" t="n">
-        <v>0.9284</v>
+        <v>0.9281199999999999</v>
       </c>
       <c r="N107" t="n">
         <v>1.1323</v>
@@ -9250,7 +9250,7 @@
         <v>0.0125</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0188878765894736</v>
+        <v>0.0188924909279036</v>
       </c>
       <c r="H110" t="n">
         <v>0.137</v>
@@ -9327,7 +9327,7 @@
         <v>0.0125</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0188878765894736</v>
+        <v>0.0188924909279036</v>
       </c>
       <c r="H111" t="n">
         <v>0.137</v>
@@ -9566,13 +9566,13 @@
         <v>1.985</v>
       </c>
       <c r="G114" t="n">
-        <v>2.30004614846532</v>
+        <v>2.27677785699418</v>
       </c>
       <c r="H114" t="n">
-        <v>8.139497169773669</v>
+        <v>9.179600022759351</v>
       </c>
       <c r="I114" t="n">
-        <v>6.40529</v>
+        <v>4.92</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -9583,7 +9583,7 @@
         <v>3.65</v>
       </c>
       <c r="N114" t="n">
-        <v>4.845</v>
+        <v>4.75518</v>
       </c>
       <c r="O114" t="n">
         <v>1860701</v>
@@ -9647,7 +9647,7 @@
         <v>0.01</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0103110488848854</v>
+        <v>0.0103130220938469</v>
       </c>
       <c r="H115" t="n">
         <v>0.037</v>
@@ -9728,7 +9728,7 @@
         <v>0.01</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0103110488848854</v>
+        <v>0.0103130220938469</v>
       </c>
       <c r="H116" t="n">
         <v>0.037</v>
@@ -10223,10 +10223,10 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.00312</v>
+        <v>0.00199</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0042569257619841</v>
+        <v>0.0033108013587383</v>
       </c>
       <c r="H122" t="n">
         <v>0.0227589915651739</v>
@@ -10237,10 +10237,10 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
-        <v>0.00343</v>
+        <v>0.00102</v>
       </c>
       <c r="M122" t="n">
-        <v>0.00662</v>
+        <v>0.00615</v>
       </c>
       <c r="N122" t="n">
         <v>0.00957</v>
@@ -10304,10 +10304,10 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.00312</v>
+        <v>0.00199</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0042569257619841</v>
+        <v>0.0033108013587383</v>
       </c>
       <c r="H123" t="n">
         <v>0.0227589915651739</v>
@@ -10318,10 +10318,10 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
-        <v>0.00343</v>
+        <v>0.00102</v>
       </c>
       <c r="M123" t="n">
-        <v>0.00662</v>
+        <v>0.00615</v>
       </c>
       <c r="N123" t="n">
         <v>0.00957</v>
@@ -10388,7 +10388,7 @@
         <v>0.4689</v>
       </c>
       <c r="G124" t="n">
-        <v>0.506262793555957</v>
+        <v>0.506290333039942</v>
       </c>
       <c r="H124" t="n">
         <v>1.51</v>
@@ -10469,7 +10469,7 @@
         <v>0.4689</v>
       </c>
       <c r="G125" t="n">
-        <v>0.506262793555957</v>
+        <v>0.506290333039942</v>
       </c>
       <c r="H125" t="n">
         <v>1.51</v>
@@ -10620,16 +10620,16 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.477</v>
+        <v>0.4767</v>
       </c>
       <c r="G127" t="n">
-        <v>0.515851223732008</v>
+        <v>0.515880242510602</v>
       </c>
       <c r="H127" t="n">
         <v>1.515</v>
       </c>
       <c r="I127" t="n">
-        <v>1.3056</v>
+        <v>1.30576</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -10637,10 +10637,10 @@
         <v>0.115</v>
       </c>
       <c r="M127" t="n">
-        <v>0.91594</v>
+        <v>0.91575</v>
       </c>
       <c r="N127" t="n">
-        <v>1.14902</v>
+        <v>1.14893</v>
       </c>
       <c r="O127" t="n">
         <v>1860701</v>
@@ -10697,16 +10697,16 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.477</v>
+        <v>0.4767</v>
       </c>
       <c r="G128" t="n">
-        <v>0.515851223732008</v>
+        <v>0.515880242510602</v>
       </c>
       <c r="H128" t="n">
         <v>1.515</v>
       </c>
       <c r="I128" t="n">
-        <v>1.3056</v>
+        <v>1.30576</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -10714,10 +10714,10 @@
         <v>0.115</v>
       </c>
       <c r="M128" t="n">
-        <v>0.91594</v>
+        <v>0.91575</v>
       </c>
       <c r="N128" t="n">
-        <v>1.14902</v>
+        <v>1.14893</v>
       </c>
       <c r="O128" t="n">
         <v>1860701</v>
@@ -11247,10 +11247,10 @@
         <v>1.8</v>
       </c>
       <c r="G135" t="n">
-        <v>1.91538994339547</v>
+        <v>1.93619200045519</v>
       </c>
       <c r="H135" t="n">
-        <v>8.139497169773669</v>
+        <v>9.179600022759351</v>
       </c>
       <c r="I135" t="n">
         <v>4.43</v>
@@ -11328,7 +11328,7 @@
         <v>0.011</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0119381675289532</v>
+        <v>0.0119401407379147</v>
       </c>
       <c r="H136" t="n">
         <v>0.037</v>
@@ -11409,7 +11409,7 @@
         <v>0.011</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0119381675289532</v>
+        <v>0.0119401407379147</v>
       </c>
       <c r="H137" t="n">
         <v>0.037</v>
@@ -11904,10 +11904,10 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.0033</v>
+        <v>0.00228</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0044158205622312</v>
+        <v>0.003472848976414</v>
       </c>
       <c r="H143" t="n">
         <v>0.0227589915651739</v>
@@ -11918,10 +11918,10 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
-        <v>0.00397</v>
+        <v>0.00225</v>
       </c>
       <c r="M143" t="n">
-        <v>0.00675</v>
+        <v>0.00575</v>
       </c>
       <c r="N143" t="n">
         <v>0.00945</v>
@@ -11985,10 +11985,10 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.0033</v>
+        <v>0.00228</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0044158205622312</v>
+        <v>0.003472848976414</v>
       </c>
       <c r="H144" t="n">
         <v>0.0227589915651739</v>
@@ -11999,10 +11999,10 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
-        <v>0.00397</v>
+        <v>0.00225</v>
       </c>
       <c r="M144" t="n">
-        <v>0.00675</v>
+        <v>0.00575</v>
       </c>
       <c r="N144" t="n">
         <v>0.00945</v>
@@ -12069,7 +12069,7 @@
         <v>0.511</v>
       </c>
       <c r="G145" t="n">
-        <v>0.533105166437313</v>
+        <v>0.533132705921297</v>
       </c>
       <c r="H145" t="n">
         <v>1.51</v>
@@ -12150,7 +12150,7 @@
         <v>0.511</v>
       </c>
       <c r="G146" t="n">
-        <v>0.533105166437313</v>
+        <v>0.533132705921297</v>
       </c>
       <c r="H146" t="n">
         <v>1.51</v>
@@ -12304,13 +12304,13 @@
         <v>0.52</v>
       </c>
       <c r="G148" t="n">
-        <v>0.543105461020143</v>
+        <v>0.54312770013772</v>
       </c>
       <c r="H148" t="n">
         <v>1.515</v>
       </c>
       <c r="I148" t="n">
-        <v>1.2984</v>
+        <v>1.29856</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -12318,10 +12318,10 @@
         <v>0.15</v>
       </c>
       <c r="M148" t="n">
-        <v>0.91594</v>
+        <v>0.91575</v>
       </c>
       <c r="N148" t="n">
-        <v>0.98248</v>
+        <v>0.98217</v>
       </c>
       <c r="O148" t="n">
         <v>1860701</v>
@@ -12381,13 +12381,13 @@
         <v>0.52</v>
       </c>
       <c r="G149" t="n">
-        <v>0.543105461020143</v>
+        <v>0.54312770013772</v>
       </c>
       <c r="H149" t="n">
         <v>1.515</v>
       </c>
       <c r="I149" t="n">
-        <v>1.2984</v>
+        <v>1.29856</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -12395,10 +12395,10 @@
         <v>0.15</v>
       </c>
       <c r="M149" t="n">
-        <v>0.91594</v>
+        <v>0.91575</v>
       </c>
       <c r="N149" t="n">
-        <v>0.98248</v>
+        <v>0.98217</v>
       </c>
       <c r="O149" t="n">
         <v>1860701</v>
@@ -13009,7 +13009,7 @@
         <v>0.01</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0120071813103722</v>
+        <v>0.0120095572150401</v>
       </c>
       <c r="H157" t="n">
         <v>0.037</v>
@@ -13090,7 +13090,7 @@
         <v>0.01</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0120071813103722</v>
+        <v>0.0120095572150401</v>
       </c>
       <c r="H158" t="n">
         <v>0.037</v>
@@ -13585,10 +13585,10 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0.00403</v>
+        <v>0.00273</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0048252495318472</v>
+        <v>0.0040118804433225</v>
       </c>
       <c r="H164" t="n">
         <v>0.0227589915651739</v>
@@ -13599,10 +13599,10 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
-        <v>0.00423</v>
+        <v>0.00313</v>
       </c>
       <c r="M164" t="n">
-        <v>0.008030000000000001</v>
+        <v>0.00714</v>
       </c>
       <c r="N164" t="n">
         <v>0.009639999999999999</v>
@@ -13666,10 +13666,10 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0.00403</v>
+        <v>0.00273</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0048252495318472</v>
+        <v>0.0040118804433225</v>
       </c>
       <c r="H165" t="n">
         <v>0.0227589915651739</v>
@@ -13680,10 +13680,10 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>0.00423</v>
+        <v>0.00313</v>
       </c>
       <c r="M165" t="n">
-        <v>0.008030000000000001</v>
+        <v>0.00714</v>
       </c>
       <c r="N165" t="n">
         <v>0.009639999999999999</v>
@@ -13750,7 +13750,7 @@
         <v>0.532</v>
       </c>
       <c r="G166" t="n">
-        <v>0.547853159587785</v>
+        <v>0.547886319374624</v>
       </c>
       <c r="H166" t="n">
         <v>1.51</v>
@@ -13831,7 +13831,7 @@
         <v>0.532</v>
       </c>
       <c r="G167" t="n">
-        <v>0.547853159587785</v>
+        <v>0.547886319374624</v>
       </c>
       <c r="H167" t="n">
         <v>1.51</v>
@@ -13985,7 +13985,7 @@
         <v>0.535</v>
       </c>
       <c r="G169" t="n">
-        <v>0.558596371432418</v>
+        <v>0.558641516492357</v>
       </c>
       <c r="H169" t="n">
         <v>1.515</v>
@@ -14002,7 +14002,7 @@
         <v>0.925</v>
       </c>
       <c r="N169" t="n">
-        <v>0.97928</v>
+        <v>0.97905</v>
       </c>
       <c r="O169" t="n">
         <v>1860701</v>
@@ -14062,7 +14062,7 @@
         <v>0.535</v>
       </c>
       <c r="G170" t="n">
-        <v>0.558596371432418</v>
+        <v>0.558641516492357</v>
       </c>
       <c r="H170" t="n">
         <v>1.515</v>
@@ -14079,7 +14079,7 @@
         <v>0.925</v>
       </c>
       <c r="N170" t="n">
-        <v>0.97928</v>
+        <v>0.97905</v>
       </c>
       <c r="O170" t="n">
         <v>1860701</v>
@@ -14613,7 +14613,7 @@
         <v>0.011</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0132797806542767</v>
+        <v>0.0132829271226207</v>
       </c>
       <c r="H177" t="n">
         <v>0.037</v>
@@ -14694,7 +14694,7 @@
         <v>0.011</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0132797806542767</v>
+        <v>0.0132829271226207</v>
       </c>
       <c r="H178" t="n">
         <v>0.037</v>
@@ -15112,10 +15112,10 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.00455</v>
+        <v>0.00365</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0055144591427384</v>
+        <v>0.0047535087978478</v>
       </c>
       <c r="H183" t="n">
         <v>0.0227589915651739</v>
@@ -15126,10 +15126,10 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
-        <v>0.00469</v>
+        <v>0.00369</v>
       </c>
       <c r="M183" t="n">
-        <v>0.00808</v>
+        <v>0.00716</v>
       </c>
       <c r="N183" t="n">
         <v>0.009900000000000001</v>
@@ -15193,10 +15193,10 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.00455</v>
+        <v>0.00365</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0055144591427384</v>
+        <v>0.0047535087978478</v>
       </c>
       <c r="H184" t="n">
         <v>0.0227589915651739</v>
@@ -15207,10 +15207,10 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
-        <v>0.00469</v>
+        <v>0.00369</v>
       </c>
       <c r="M184" t="n">
-        <v>0.00808</v>
+        <v>0.00716</v>
       </c>
       <c r="N184" t="n">
         <v>0.009900000000000001</v>
@@ -16033,6 +16033,87 @@
         </is>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Tamaki at Stephensons</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G195" t="n">
+        <v>11.246463358376</v>
+      </c>
+      <c r="H195" t="n">
+        <v>70</v>
+      </c>
+      <c r="I195" t="n">
+        <v>59</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M195" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="N195" t="n">
+        <v>43.82</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1860701</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5540503</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Mana_5b</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/TamakiatStephensons_aaee89bde6.xlsx
+++ b/state_results/Rivers/TamakiatStephensons_aaee89bde6.xlsx
@@ -570,13 +570,13 @@
         <v>3.45</v>
       </c>
       <c r="G2" t="n">
-        <v>3.50324585628222</v>
+        <v>3.4716455930539</v>
       </c>
       <c r="H2" t="n">
-        <v>10.1563582358668</v>
+        <v>8.712173020746141</v>
       </c>
       <c r="I2" t="n">
-        <v>9.22176</v>
+        <v>7.95364</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>4.1</v>
       </c>
       <c r="M2" t="n">
-        <v>6.112</v>
+        <v>6.3</v>
       </c>
       <c r="N2" t="n">
-        <v>6.676</v>
+        <v>7.40931</v>
       </c>
       <c r="O2" t="n">
         <v>1860701</v>
@@ -1623,13 +1623,13 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.97472951002634</v>
+        <v>2.93844247075246</v>
       </c>
       <c r="H15" t="n">
-        <v>10.1563582358668</v>
+        <v>8.712173020746141</v>
       </c>
       <c r="I15" t="n">
-        <v>7.74088</v>
+        <v>7.70411</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1640,7 +1640,7 @@
         <v>6</v>
       </c>
       <c r="N15" t="n">
-        <v>6.3</v>
+        <v>6.55401</v>
       </c>
       <c r="O15" t="n">
         <v>1860701</v>
@@ -2919,13 +2919,13 @@
         <v>2.32</v>
       </c>
       <c r="G31" t="n">
-        <v>2.91736928342364</v>
+        <v>2.90190404642036</v>
       </c>
       <c r="H31" t="n">
-        <v>10.1563582358668</v>
+        <v>8.712173020746141</v>
       </c>
       <c r="I31" t="n">
-        <v>6.3</v>
+        <v>7.34848</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2933,10 +2933,10 @@
         <v>3.2</v>
       </c>
       <c r="M31" t="n">
-        <v>5.69429</v>
+        <v>6</v>
       </c>
       <c r="N31" t="n">
-        <v>6.168</v>
+        <v>6.3318</v>
       </c>
       <c r="O31" t="n">
         <v>1860701</v>
@@ -4523,13 +4523,13 @@
         <v>1.96</v>
       </c>
       <c r="G51" t="n">
-        <v>2.54816557892004</v>
+        <v>2.5305898248121</v>
       </c>
       <c r="H51" t="n">
-        <v>9.50195240058048</v>
+        <v>8.712173020746141</v>
       </c>
       <c r="I51" t="n">
-        <v>5.99745</v>
+        <v>6.39312</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -4537,10 +4537,10 @@
         <v>2.81</v>
       </c>
       <c r="M51" t="n">
-        <v>4.6246</v>
+        <v>4.10149</v>
       </c>
       <c r="N51" t="n">
-        <v>5.51455</v>
+        <v>6.16198</v>
       </c>
       <c r="O51" t="n">
         <v>1860701</v>
@@ -6204,13 +6204,13 @@
         <v>1.96</v>
       </c>
       <c r="G72" t="n">
-        <v>2.38800928536494</v>
+        <v>2.38599826499379</v>
       </c>
       <c r="H72" t="n">
-        <v>9.179600022759351</v>
+        <v>8.00909007025429</v>
       </c>
       <c r="I72" t="n">
-        <v>4.8975</v>
+        <v>6.17471</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -6218,10 +6218,10 @@
         <v>3.1</v>
       </c>
       <c r="M72" t="n">
-        <v>4.2107</v>
+        <v>3.8725</v>
       </c>
       <c r="N72" t="n">
-        <v>4.75249</v>
+        <v>4.93543</v>
       </c>
       <c r="O72" t="n">
         <v>1860701</v>
@@ -7885,13 +7885,13 @@
         <v>1.91</v>
       </c>
       <c r="G93" t="n">
-        <v>2.32527324234819</v>
+        <v>2.27454914334975</v>
       </c>
       <c r="H93" t="n">
-        <v>9.179600022759351</v>
+        <v>6.39351547140702</v>
       </c>
       <c r="I93" t="n">
-        <v>4.9125</v>
+        <v>4.97639</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -7902,7 +7902,7 @@
         <v>3.7126</v>
       </c>
       <c r="N93" t="n">
-        <v>4.75281</v>
+        <v>4.833</v>
       </c>
       <c r="O93" t="n">
         <v>1860701</v>
@@ -9566,13 +9566,13 @@
         <v>1.985</v>
       </c>
       <c r="G114" t="n">
-        <v>2.27677785699418</v>
+        <v>2.23457047975423</v>
       </c>
       <c r="H114" t="n">
-        <v>9.179600022759351</v>
+        <v>6.39351547140702</v>
       </c>
       <c r="I114" t="n">
-        <v>4.92</v>
+        <v>4.97935</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -9583,7 +9583,7 @@
         <v>3.65</v>
       </c>
       <c r="N114" t="n">
-        <v>4.75518</v>
+        <v>4.845</v>
       </c>
       <c r="O114" t="n">
         <v>1860701</v>
@@ -11247,10 +11247,10 @@
         <v>1.8</v>
       </c>
       <c r="G135" t="n">
-        <v>1.93619200045519</v>
+        <v>1.88031309749407</v>
       </c>
       <c r="H135" t="n">
-        <v>9.179600022759351</v>
+        <v>6.38565487470366</v>
       </c>
       <c r="I135" t="n">
         <v>4.43</v>

--- a/state_results/Rivers/TamakiatStephensons_aaee89bde6.xlsx
+++ b/state_results/Rivers/TamakiatStephensons_aaee89bde6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="76">
   <si>
     <t>site name</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -596,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U198"/>
+  <dimension ref="A1:U199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,28 +684,28 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>3.45</v>
       </c>
       <c r="G2">
-        <v>3.33013608334823</v>
+        <v>3.40614634996839</v>
       </c>
       <c r="H2">
-        <v>7.12381125420292</v>
+        <v>6.7</v>
       </c>
       <c r="I2">
-        <v>6.79006</v>
+        <v>6.67227</v>
       </c>
       <c r="L2">
-        <v>3.90988</v>
+        <v>4.5</v>
       </c>
       <c r="M2">
-        <v>6.112</v>
+        <v>6.3</v>
       </c>
       <c r="N2">
-        <v>6.676</v>
+        <v>6.55012</v>
       </c>
       <c r="O2">
         <v>1860701</v>
@@ -711,19 +714,19 @@
         <v>5540503</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -740,13 +743,13 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>0.008</v>
       </c>
       <c r="G3">
-        <v>0.0090111031853996</v>
+        <v>0.0090039263695807</v>
       </c>
       <c r="H3">
         <v>0.018</v>
@@ -770,19 +773,19 @@
         <v>5540503</v>
       </c>
       <c r="Q3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -799,13 +802,13 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>0.008</v>
       </c>
       <c r="G4">
-        <v>0.0090111031853996</v>
+        <v>0.0090039263695807</v>
       </c>
       <c r="H4">
         <v>0.018</v>
@@ -829,19 +832,19 @@
         <v>5540503</v>
       </c>
       <c r="Q4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -858,13 +861,13 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <v>227</v>
       </c>
       <c r="G5">
-        <v>649.166666666667</v>
+        <v>649.130555555556</v>
       </c>
       <c r="H5">
         <v>9340</v>
@@ -885,7 +888,7 @@
         <v>676.84</v>
       </c>
       <c r="N5">
-        <v>976.0599999999999</v>
+        <v>976.136</v>
       </c>
       <c r="O5">
         <v>1860701</v>
@@ -894,19 +897,19 @@
         <v>5540503</v>
       </c>
       <c r="Q5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -923,13 +926,13 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>227</v>
       </c>
       <c r="G6">
-        <v>649.166666666667</v>
+        <v>649.130555555556</v>
       </c>
       <c r="H6">
         <v>9340</v>
@@ -950,7 +953,7 @@
         <v>676.84</v>
       </c>
       <c r="N6">
-        <v>976.0599999999999</v>
+        <v>976.136</v>
       </c>
       <c r="O6">
         <v>1860701</v>
@@ -959,19 +962,19 @@
         <v>5540503</v>
       </c>
       <c r="Q6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -988,13 +991,13 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7">
         <v>227</v>
       </c>
       <c r="G7">
-        <v>649.166666666667</v>
+        <v>649.130555555556</v>
       </c>
       <c r="H7">
         <v>9340</v>
@@ -1015,7 +1018,7 @@
         <v>676.84</v>
       </c>
       <c r="N7">
-        <v>976.0599999999999</v>
+        <v>976.136</v>
       </c>
       <c r="O7">
         <v>1860701</v>
@@ -1024,19 +1027,19 @@
         <v>5540503</v>
       </c>
       <c r="Q7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1053,13 +1056,13 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>227</v>
       </c>
       <c r="G8">
-        <v>649.166666666667</v>
+        <v>649.130555555556</v>
       </c>
       <c r="H8">
         <v>9340</v>
@@ -1080,7 +1083,7 @@
         <v>676.84</v>
       </c>
       <c r="N8">
-        <v>976.0599999999999</v>
+        <v>976.136</v>
       </c>
       <c r="O8">
         <v>1860701</v>
@@ -1089,19 +1092,19 @@
         <v>5540503</v>
       </c>
       <c r="Q8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1118,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>0.00442</v>
       </c>
       <c r="G9">
-        <v>0.0065462152225574</v>
+        <v>0.0065427452394701</v>
       </c>
       <c r="H9">
         <v>0.0344681852524333</v>
@@ -1133,7 +1136,7 @@
         <v>0.03068</v>
       </c>
       <c r="L9">
-        <v>0.00566</v>
+        <v>0.00527</v>
       </c>
       <c r="M9">
         <v>0.00878</v>
@@ -1148,19 +1151,19 @@
         <v>5540503</v>
       </c>
       <c r="Q9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1177,13 +1180,13 @@
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10">
         <v>0.00442</v>
       </c>
       <c r="G10">
-        <v>0.0065462152225574</v>
+        <v>0.0065427452394701</v>
       </c>
       <c r="H10">
         <v>0.0344681852524333</v>
@@ -1192,7 +1195,7 @@
         <v>0.03068</v>
       </c>
       <c r="L10">
-        <v>0.00566</v>
+        <v>0.00527</v>
       </c>
       <c r="M10">
         <v>0.00878</v>
@@ -1207,19 +1210,19 @@
         <v>5540503</v>
       </c>
       <c r="Q10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1233,7 +1236,7 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11">
         <v>0.4055</v>
@@ -1263,19 +1266,19 @@
         <v>5540503</v>
       </c>
       <c r="Q11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1289,7 +1292,7 @@
         <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12">
         <v>0.4055</v>
@@ -1319,19 +1322,19 @@
         <v>5540503</v>
       </c>
       <c r="Q12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1345,7 +1348,7 @@
         <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>0.0175</v>
@@ -1360,7 +1363,7 @@
         <v>0.66165</v>
       </c>
       <c r="L13">
-        <v>0.0135</v>
+        <v>0.014</v>
       </c>
       <c r="M13">
         <v>0.06516</v>
@@ -1375,19 +1378,19 @@
         <v>5540503</v>
       </c>
       <c r="Q13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1401,7 +1404,7 @@
         <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14">
         <v>0.0175</v>
@@ -1416,7 +1419,7 @@
         <v>0.66165</v>
       </c>
       <c r="L14">
-        <v>0.0135</v>
+        <v>0.014</v>
       </c>
       <c r="M14">
         <v>0.06516</v>
@@ -1431,19 +1434,19 @@
         <v>5540503</v>
       </c>
       <c r="Q14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1460,28 +1463,28 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15">
-        <v>2.80333687279813</v>
+        <v>2.88719142860228</v>
       </c>
       <c r="H15">
-        <v>7.12381125420292</v>
+        <v>6.68569223664157</v>
       </c>
       <c r="I15">
-        <v>6.52503</v>
+        <v>6.53915</v>
       </c>
       <c r="L15">
-        <v>3.13123</v>
+        <v>3.45</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>6.01891</v>
       </c>
       <c r="N15">
-        <v>6.3</v>
+        <v>6.3504</v>
       </c>
       <c r="O15">
         <v>1860701</v>
@@ -1490,19 +1493,19 @@
         <v>5540503</v>
       </c>
       <c r="Q15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1519,13 +1522,13 @@
         <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F16">
         <v>0.008</v>
       </c>
       <c r="G16">
-        <v>0.008357688577310099</v>
+        <v>0.0083410593665096</v>
       </c>
       <c r="H16">
         <v>0.018</v>
@@ -1534,7 +1537,7 @@
         <v>0.0142</v>
       </c>
       <c r="L16">
-        <v>0.008999999999999999</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M16">
         <v>0.01068</v>
@@ -1549,19 +1552,19 @@
         <v>5540503</v>
       </c>
       <c r="Q16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1578,13 +1581,13 @@
         <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17">
         <v>0.008</v>
       </c>
       <c r="G17">
-        <v>0.008357688577310099</v>
+        <v>0.0083410593665096</v>
       </c>
       <c r="H17">
         <v>0.018</v>
@@ -1593,7 +1596,7 @@
         <v>0.0142</v>
       </c>
       <c r="L17">
-        <v>0.008999999999999999</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M17">
         <v>0.01068</v>
@@ -1608,19 +1611,19 @@
         <v>5540503</v>
       </c>
       <c r="Q17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1637,13 +1640,13 @@
         <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F18">
         <v>170</v>
       </c>
       <c r="G18">
-        <v>532.04347826087</v>
+        <v>532.015217391304</v>
       </c>
       <c r="H18">
         <v>9340</v>
@@ -1658,13 +1661,13 @@
         <v>32.6086956521739</v>
       </c>
       <c r="L18">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="M18">
         <v>419.64</v>
       </c>
       <c r="N18">
-        <v>940.64</v>
+        <v>940.804</v>
       </c>
       <c r="O18">
         <v>1860701</v>
@@ -1673,19 +1676,19 @@
         <v>5540503</v>
       </c>
       <c r="Q18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1702,13 +1705,13 @@
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19">
         <v>170</v>
       </c>
       <c r="G19">
-        <v>532.04347826087</v>
+        <v>532.015217391304</v>
       </c>
       <c r="H19">
         <v>9340</v>
@@ -1723,13 +1726,13 @@
         <v>32.6086956521739</v>
       </c>
       <c r="L19">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="M19">
         <v>419.64</v>
       </c>
       <c r="N19">
-        <v>940.64</v>
+        <v>940.804</v>
       </c>
       <c r="O19">
         <v>1860701</v>
@@ -1738,19 +1741,19 @@
         <v>5540503</v>
       </c>
       <c r="Q19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1767,13 +1770,13 @@
         <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>170</v>
       </c>
       <c r="G20">
-        <v>532.04347826087</v>
+        <v>532.015217391304</v>
       </c>
       <c r="H20">
         <v>9340</v>
@@ -1788,13 +1791,13 @@
         <v>32.6086956521739</v>
       </c>
       <c r="L20">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="M20">
         <v>419.64</v>
       </c>
       <c r="N20">
-        <v>940.64</v>
+        <v>940.804</v>
       </c>
       <c r="O20">
         <v>1860701</v>
@@ -1803,19 +1806,19 @@
         <v>5540503</v>
       </c>
       <c r="Q20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1832,13 +1835,13 @@
         <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21">
         <v>170</v>
       </c>
       <c r="G21">
-        <v>532.04347826087</v>
+        <v>532.015217391304</v>
       </c>
       <c r="H21">
         <v>9340</v>
@@ -1853,13 +1856,13 @@
         <v>32.6086956521739</v>
       </c>
       <c r="L21">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="M21">
         <v>419.64</v>
       </c>
       <c r="N21">
-        <v>940.64</v>
+        <v>940.804</v>
       </c>
       <c r="O21">
         <v>1860701</v>
@@ -1868,19 +1871,19 @@
         <v>5540503</v>
       </c>
       <c r="Q21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1897,13 +1900,13 @@
         <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F22">
         <v>0.00531</v>
       </c>
       <c r="G22">
-        <v>0.0073561874558213</v>
+        <v>0.0073539008486045</v>
       </c>
       <c r="H22">
         <v>0.0344681852524333</v>
@@ -1912,7 +1915,7 @@
         <v>0.02369</v>
       </c>
       <c r="L22">
-        <v>0.00729</v>
+        <v>0.00604</v>
       </c>
       <c r="M22">
         <v>0.0113</v>
@@ -1927,19 +1930,19 @@
         <v>5540503</v>
       </c>
       <c r="Q22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1956,13 +1959,13 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F23">
         <v>0.00531</v>
       </c>
       <c r="G23">
-        <v>0.0073561874558213</v>
+        <v>0.0073539008486045</v>
       </c>
       <c r="H23">
         <v>0.0344681852524333</v>
@@ -1971,7 +1974,7 @@
         <v>0.02369</v>
       </c>
       <c r="L23">
-        <v>0.00729</v>
+        <v>0.00604</v>
       </c>
       <c r="M23">
         <v>0.0113</v>
@@ -1986,19 +1989,19 @@
         <v>5540503</v>
       </c>
       <c r="Q23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2015,7 +2018,7 @@
         <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24">
         <v>0.544</v>
@@ -2030,7 +2033,7 @@
         <v>1.1965</v>
       </c>
       <c r="L24">
-        <v>0.226</v>
+        <v>0.231</v>
       </c>
       <c r="M24">
         <v>0.9231200000000001</v>
@@ -2045,19 +2048,19 @@
         <v>5540503</v>
       </c>
       <c r="Q24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2074,7 +2077,7 @@
         <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25">
         <v>0.544</v>
@@ -2089,7 +2092,7 @@
         <v>1.1965</v>
       </c>
       <c r="L25">
-        <v>0.226</v>
+        <v>0.231</v>
       </c>
       <c r="M25">
         <v>0.9231200000000001</v>
@@ -2104,19 +2107,19 @@
         <v>5540503</v>
       </c>
       <c r="Q25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2130,7 +2133,7 @@
         <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26">
         <v>0.582</v>
@@ -2145,7 +2148,7 @@
         <v>1.6507</v>
       </c>
       <c r="L26">
-        <v>0.215</v>
+        <v>0.23475</v>
       </c>
       <c r="M26">
         <v>0.98184</v>
@@ -2160,19 +2163,19 @@
         <v>5540503</v>
       </c>
       <c r="Q26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2186,7 +2189,7 @@
         <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27">
         <v>0.582</v>
@@ -2201,7 +2204,7 @@
         <v>1.6507</v>
       </c>
       <c r="L27">
-        <v>0.215</v>
+        <v>0.23475</v>
       </c>
       <c r="M27">
         <v>0.98184</v>
@@ -2216,19 +2219,19 @@
         <v>5540503</v>
       </c>
       <c r="Q27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2242,13 +2245,13 @@
         <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28">
         <v>0.015</v>
       </c>
       <c r="G28">
-        <v>0.09363150990596129</v>
+        <v>0.0936233360567755</v>
       </c>
       <c r="H28">
         <v>2.267</v>
@@ -2257,7 +2260,7 @@
         <v>0.2969</v>
       </c>
       <c r="L28">
-        <v>0.0135</v>
+        <v>0.014</v>
       </c>
       <c r="M28">
         <v>0.04844</v>
@@ -2272,19 +2275,19 @@
         <v>5540503</v>
       </c>
       <c r="Q28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2298,13 +2301,13 @@
         <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29">
         <v>0.015</v>
       </c>
       <c r="G29">
-        <v>0.09363150990596129</v>
+        <v>0.0936233360567755</v>
       </c>
       <c r="H29">
         <v>2.267</v>
@@ -2313,7 +2316,7 @@
         <v>0.2969</v>
       </c>
       <c r="L29">
-        <v>0.0135</v>
+        <v>0.014</v>
       </c>
       <c r="M29">
         <v>0.04844</v>
@@ -2328,19 +2331,19 @@
         <v>5540503</v>
       </c>
       <c r="Q29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2357,7 +2360,7 @@
         <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2372,7 +2375,7 @@
         <v>53.95</v>
       </c>
       <c r="L30">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M30">
         <v>12.745</v>
@@ -2387,19 +2390,19 @@
         <v>5540503</v>
       </c>
       <c r="Q30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2416,28 +2419,28 @@
         <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F31">
         <v>2.32</v>
       </c>
       <c r="G31">
-        <v>2.76714818682442</v>
+        <v>2.8453832749705</v>
       </c>
       <c r="H31">
-        <v>7.12381125420292</v>
+        <v>6.68569223664157</v>
       </c>
       <c r="I31">
-        <v>6.3</v>
+        <v>6.52015</v>
       </c>
       <c r="L31">
-        <v>3.13123</v>
+        <v>3.45</v>
       </c>
       <c r="M31">
-        <v>5.79299</v>
+        <v>6</v>
       </c>
       <c r="N31">
-        <v>6.168</v>
+        <v>6.34753</v>
       </c>
       <c r="O31">
         <v>1860701</v>
@@ -2446,19 +2449,19 @@
         <v>5540503</v>
       </c>
       <c r="Q31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2475,13 +2478,13 @@
         <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F32">
         <v>0.008</v>
       </c>
       <c r="G32">
-        <v>0.008697477147521801</v>
+        <v>0.008684288463093799</v>
       </c>
       <c r="H32">
         <v>0.033</v>
@@ -2505,19 +2508,19 @@
         <v>5540503</v>
       </c>
       <c r="Q32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2534,13 +2537,13 @@
         <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F33">
         <v>0.008</v>
       </c>
       <c r="G33">
-        <v>0.008697477147521801</v>
+        <v>0.008684288463093799</v>
       </c>
       <c r="H33">
         <v>0.033</v>
@@ -2564,19 +2567,19 @@
         <v>5540503</v>
       </c>
       <c r="Q33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2593,19 +2596,19 @@
         <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F34">
         <v>185</v>
       </c>
       <c r="G34">
-        <v>481.086206896552</v>
+        <v>481.063793103448</v>
       </c>
       <c r="H34">
         <v>9340</v>
       </c>
       <c r="I34">
-        <v>975.8</v>
+        <v>975.88</v>
       </c>
       <c r="J34">
         <v>13.7931034482759</v>
@@ -2614,7 +2617,7 @@
         <v>34.4827586206897</v>
       </c>
       <c r="L34">
-        <v>260.5</v>
+        <v>254</v>
       </c>
       <c r="M34">
         <v>491.52</v>
@@ -2629,19 +2632,19 @@
         <v>5540503</v>
       </c>
       <c r="Q34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2658,19 +2661,19 @@
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F35">
         <v>185</v>
       </c>
       <c r="G35">
-        <v>481.086206896552</v>
+        <v>481.063793103448</v>
       </c>
       <c r="H35">
         <v>9340</v>
       </c>
       <c r="I35">
-        <v>975.8</v>
+        <v>975.88</v>
       </c>
       <c r="J35">
         <v>13.7931034482759</v>
@@ -2679,7 +2682,7 @@
         <v>34.4827586206897</v>
       </c>
       <c r="L35">
-        <v>260.5</v>
+        <v>254</v>
       </c>
       <c r="M35">
         <v>491.52</v>
@@ -2694,19 +2697,19 @@
         <v>5540503</v>
       </c>
       <c r="Q35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2723,19 +2726,19 @@
         <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F36">
         <v>185</v>
       </c>
       <c r="G36">
-        <v>481.086206896552</v>
+        <v>481.063793103448</v>
       </c>
       <c r="H36">
         <v>9340</v>
       </c>
       <c r="I36">
-        <v>975.8</v>
+        <v>975.88</v>
       </c>
       <c r="J36">
         <v>13.7931034482759</v>
@@ -2744,7 +2747,7 @@
         <v>34.4827586206897</v>
       </c>
       <c r="L36">
-        <v>260.5</v>
+        <v>254</v>
       </c>
       <c r="M36">
         <v>491.52</v>
@@ -2759,19 +2762,19 @@
         <v>5540503</v>
       </c>
       <c r="Q36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2788,19 +2791,19 @@
         <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F37">
         <v>185</v>
       </c>
       <c r="G37">
-        <v>481.086206896552</v>
+        <v>481.063793103448</v>
       </c>
       <c r="H37">
         <v>9340</v>
       </c>
       <c r="I37">
-        <v>975.8</v>
+        <v>975.88</v>
       </c>
       <c r="J37">
         <v>13.7931034482759</v>
@@ -2809,7 +2812,7 @@
         <v>34.4827586206897</v>
       </c>
       <c r="L37">
-        <v>260.5</v>
+        <v>254</v>
       </c>
       <c r="M37">
         <v>491.52</v>
@@ -2824,19 +2827,19 @@
         <v>5540503</v>
       </c>
       <c r="Q37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2853,7 +2856,7 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F38">
         <v>125</v>
@@ -2883,16 +2886,16 @@
         <v>5540503</v>
       </c>
       <c r="Q38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2909,13 +2912,13 @@
         <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F39">
         <v>0.00499</v>
       </c>
       <c r="G39">
-        <v>0.0065973166938355</v>
+        <v>0.006595503177767</v>
       </c>
       <c r="H39">
         <v>0.0344681852524333</v>
@@ -2924,7 +2927,7 @@
         <v>0.02072</v>
       </c>
       <c r="L39">
-        <v>0.00582</v>
+        <v>0.00554</v>
       </c>
       <c r="M39">
         <v>0.01085</v>
@@ -2939,19 +2942,19 @@
         <v>5540503</v>
       </c>
       <c r="Q39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2968,13 +2971,13 @@
         <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F40">
         <v>0.00499</v>
       </c>
       <c r="G40">
-        <v>0.0065973166938355</v>
+        <v>0.006595503177767</v>
       </c>
       <c r="H40">
         <v>0.0344681852524333</v>
@@ -2983,7 +2986,7 @@
         <v>0.02072</v>
       </c>
       <c r="L40">
-        <v>0.00582</v>
+        <v>0.00554</v>
       </c>
       <c r="M40">
         <v>0.01085</v>
@@ -2998,19 +3001,19 @@
         <v>5540503</v>
       </c>
       <c r="Q40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3027,7 +3030,7 @@
         <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F41">
         <v>0.3926</v>
@@ -3042,7 +3045,7 @@
         <v>1.207</v>
       </c>
       <c r="L41">
-        <v>0.18335</v>
+        <v>0.205</v>
       </c>
       <c r="M41">
         <v>0.90146</v>
@@ -3057,19 +3060,19 @@
         <v>5540503</v>
       </c>
       <c r="Q41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3086,7 +3089,7 @@
         <v>50</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F42">
         <v>0.3926</v>
@@ -3101,7 +3104,7 @@
         <v>1.207</v>
       </c>
       <c r="L42">
-        <v>0.18335</v>
+        <v>0.205</v>
       </c>
       <c r="M42">
         <v>0.90146</v>
@@ -3116,19 +3119,19 @@
         <v>5540503</v>
       </c>
       <c r="Q42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3142,7 +3145,7 @@
         <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F43">
         <v>0.47385</v>
@@ -3157,7 +3160,7 @@
         <v>1.5411</v>
       </c>
       <c r="L43">
-        <v>0.1706</v>
+        <v>0.1911</v>
       </c>
       <c r="M43">
         <v>0.96652</v>
@@ -3172,19 +3175,19 @@
         <v>5540503</v>
       </c>
       <c r="Q43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3198,7 +3201,7 @@
         <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F44">
         <v>0.47385</v>
@@ -3213,7 +3216,7 @@
         <v>1.5411</v>
       </c>
       <c r="L44">
-        <v>0.1706</v>
+        <v>0.1911</v>
       </c>
       <c r="M44">
         <v>0.96652</v>
@@ -3228,19 +3231,19 @@
         <v>5540503</v>
       </c>
       <c r="Q44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3254,7 +3257,7 @@
         <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F45">
         <v>0.6555</v>
@@ -3269,7 +3272,7 @@
         <v>1.8404</v>
       </c>
       <c r="L45">
-        <v>0.265</v>
+        <v>0.29</v>
       </c>
       <c r="M45">
         <v>1.15056</v>
@@ -3284,19 +3287,19 @@
         <v>5540503</v>
       </c>
       <c r="Q45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3310,7 +3313,7 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46">
         <v>0.6555</v>
@@ -3325,7 +3328,7 @@
         <v>1.8404</v>
       </c>
       <c r="L46">
-        <v>0.265</v>
+        <v>0.29</v>
       </c>
       <c r="M46">
         <v>1.15056</v>
@@ -3340,19 +3343,19 @@
         <v>5540503</v>
       </c>
       <c r="Q46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3366,13 +3369,13 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F47">
         <v>0.015</v>
       </c>
       <c r="G47">
-        <v>0.07817326647714171</v>
+        <v>0.0781667837691668</v>
       </c>
       <c r="H47">
         <v>2.267</v>
@@ -3381,7 +3384,7 @@
         <v>0.1506</v>
       </c>
       <c r="L47">
-        <v>0.013</v>
+        <v>0.0135</v>
       </c>
       <c r="M47">
         <v>0.04264</v>
@@ -3396,19 +3399,19 @@
         <v>5540503</v>
       </c>
       <c r="Q47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3422,13 +3425,13 @@
         <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F48">
         <v>0.015</v>
       </c>
       <c r="G48">
-        <v>0.07817326647714171</v>
+        <v>0.0781667837691668</v>
       </c>
       <c r="H48">
         <v>2.267</v>
@@ -3437,7 +3440,7 @@
         <v>0.1506</v>
       </c>
       <c r="L48">
-        <v>0.013</v>
+        <v>0.0135</v>
       </c>
       <c r="M48">
         <v>0.04264</v>
@@ -3452,19 +3455,19 @@
         <v>5540503</v>
       </c>
       <c r="Q48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3481,7 +3484,7 @@
         <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F49">
         <v>0.5659999999999999</v>
@@ -3511,16 +3514,16 @@
         <v>5540503</v>
       </c>
       <c r="Q49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3537,7 +3540,7 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F50">
         <v>0.9</v>
@@ -3552,7 +3555,7 @@
         <v>32.25</v>
       </c>
       <c r="L50">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M50">
         <v>10.225</v>
@@ -3567,19 +3570,19 @@
         <v>5540503</v>
       </c>
       <c r="Q50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3596,28 +3599,28 @@
         <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51">
         <v>1.96</v>
       </c>
       <c r="G51">
-        <v>2.39302425258779</v>
+        <v>2.50619041373936</v>
       </c>
       <c r="H51">
-        <v>7.12381125420292</v>
+        <v>7.17723851342943</v>
       </c>
       <c r="I51">
-        <v>5.87322</v>
+        <v>6.52461</v>
       </c>
       <c r="L51">
         <v>2.81</v>
       </c>
       <c r="M51">
-        <v>3.80791</v>
+        <v>4.15578</v>
       </c>
       <c r="N51">
-        <v>5.66417</v>
+        <v>6.20541</v>
       </c>
       <c r="O51">
         <v>1860701</v>
@@ -3626,19 +3629,19 @@
         <v>5540503</v>
       </c>
       <c r="Q51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3655,13 +3658,13 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52">
         <v>0.008</v>
       </c>
       <c r="G52">
-        <v>0.009007821975108</v>
+        <v>0.008994633290679999</v>
       </c>
       <c r="H52">
         <v>0.033</v>
@@ -3670,7 +3673,7 @@
         <v>0.015</v>
       </c>
       <c r="L52">
-        <v>0.008</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M52">
         <v>0.012</v>
@@ -3685,19 +3688,19 @@
         <v>5540503</v>
       </c>
       <c r="Q52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3714,13 +3717,13 @@
         <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53">
         <v>0.008</v>
       </c>
       <c r="G53">
-        <v>0.009007821975108</v>
+        <v>0.008994633290679999</v>
       </c>
       <c r="H53">
         <v>0.033</v>
@@ -3729,7 +3732,7 @@
         <v>0.015</v>
       </c>
       <c r="L53">
-        <v>0.008</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M53">
         <v>0.012</v>
@@ -3744,19 +3747,19 @@
         <v>5540503</v>
       </c>
       <c r="Q53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3773,13 +3776,13 @@
         <v>51</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F54">
         <v>195</v>
       </c>
       <c r="G54">
-        <v>545.844827586207</v>
+        <v>545.839655172414</v>
       </c>
       <c r="H54">
         <v>9340</v>
@@ -3794,7 +3797,7 @@
         <v>37.9310344827586</v>
       </c>
       <c r="L54">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="M54">
         <v>520.4</v>
@@ -3809,19 +3812,19 @@
         <v>5540503</v>
       </c>
       <c r="Q54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3838,13 +3841,13 @@
         <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F55">
         <v>195</v>
       </c>
       <c r="G55">
-        <v>545.844827586207</v>
+        <v>545.839655172414</v>
       </c>
       <c r="H55">
         <v>9340</v>
@@ -3859,7 +3862,7 @@
         <v>37.9310344827586</v>
       </c>
       <c r="L55">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="M55">
         <v>520.4</v>
@@ -3874,19 +3877,19 @@
         <v>5540503</v>
       </c>
       <c r="Q55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3903,13 +3906,13 @@
         <v>51</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F56">
         <v>195</v>
       </c>
       <c r="G56">
-        <v>545.844827586207</v>
+        <v>545.839655172414</v>
       </c>
       <c r="H56">
         <v>9340</v>
@@ -3924,7 +3927,7 @@
         <v>37.9310344827586</v>
       </c>
       <c r="L56">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="M56">
         <v>520.4</v>
@@ -3939,19 +3942,19 @@
         <v>5540503</v>
       </c>
       <c r="Q56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3968,13 +3971,13 @@
         <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F57">
         <v>195</v>
       </c>
       <c r="G57">
-        <v>545.844827586207</v>
+        <v>545.839655172414</v>
       </c>
       <c r="H57">
         <v>9340</v>
@@ -3989,7 +3992,7 @@
         <v>37.9310344827586</v>
       </c>
       <c r="L57">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="M57">
         <v>520.4</v>
@@ -4004,19 +4007,19 @@
         <v>5540503</v>
       </c>
       <c r="Q57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4033,7 +4036,7 @@
         <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F58">
         <v>125</v>
@@ -4063,16 +4066,16 @@
         <v>5540503</v>
       </c>
       <c r="Q58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4089,13 +4092,13 @@
         <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F59">
-        <v>0.00419</v>
+        <v>0.00421</v>
       </c>
       <c r="G59">
-        <v>0.0058177765918117</v>
+        <v>0.0058188555511777</v>
       </c>
       <c r="H59">
         <v>0.0344681852524333</v>
@@ -4104,7 +4107,7 @@
         <v>0.01855</v>
       </c>
       <c r="L59">
-        <v>0.00401</v>
+        <v>0.00403</v>
       </c>
       <c r="M59">
         <v>0.00902</v>
@@ -4119,19 +4122,19 @@
         <v>5540503</v>
       </c>
       <c r="Q59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4148,13 +4151,13 @@
         <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F60">
-        <v>0.00419</v>
+        <v>0.00421</v>
       </c>
       <c r="G60">
-        <v>0.0058177765918117</v>
+        <v>0.0058188555511777</v>
       </c>
       <c r="H60">
         <v>0.0344681852524333</v>
@@ -4163,7 +4166,7 @@
         <v>0.01855</v>
       </c>
       <c r="L60">
-        <v>0.00401</v>
+        <v>0.00403</v>
       </c>
       <c r="M60">
         <v>0.00902</v>
@@ -4178,19 +4181,19 @@
         <v>5540503</v>
       </c>
       <c r="Q60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4207,7 +4210,7 @@
         <v>51</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F61">
         <v>0.4656</v>
@@ -4222,7 +4225,7 @@
         <v>1.242</v>
       </c>
       <c r="L61">
-        <v>0.1711</v>
+        <v>0.18335</v>
       </c>
       <c r="M61">
         <v>0.90454</v>
@@ -4237,19 +4240,19 @@
         <v>5540503</v>
       </c>
       <c r="Q61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4266,7 +4269,7 @@
         <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F62">
         <v>0.4656</v>
@@ -4281,7 +4284,7 @@
         <v>1.242</v>
       </c>
       <c r="L62">
-        <v>0.1711</v>
+        <v>0.18335</v>
       </c>
       <c r="M62">
         <v>0.90454</v>
@@ -4296,19 +4299,19 @@
         <v>5540503</v>
       </c>
       <c r="Q62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4325,7 +4328,7 @@
         <v>51</v>
       </c>
       <c r="E63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F63">
         <v>6.02</v>
@@ -4355,16 +4358,16 @@
         <v>5540503</v>
       </c>
       <c r="Q63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4378,7 +4381,7 @@
         <v>51</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F64">
         <v>0.4762</v>
@@ -4393,7 +4396,7 @@
         <v>1.2512</v>
       </c>
       <c r="L64">
-        <v>0.17815</v>
+        <v>0.1911</v>
       </c>
       <c r="M64">
         <v>0.91116</v>
@@ -4408,19 +4411,19 @@
         <v>5540503</v>
       </c>
       <c r="Q64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4434,7 +4437,7 @@
         <v>51</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F65">
         <v>0.4762</v>
@@ -4449,7 +4452,7 @@
         <v>1.2512</v>
       </c>
       <c r="L65">
-        <v>0.17815</v>
+        <v>0.1911</v>
       </c>
       <c r="M65">
         <v>0.91116</v>
@@ -4464,19 +4467,19 @@
         <v>5540503</v>
       </c>
       <c r="Q65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U65" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4490,7 +4493,7 @@
         <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F66">
         <v>0.5895</v>
@@ -4505,7 +4508,7 @@
         <v>1.5608</v>
       </c>
       <c r="L66">
-        <v>0.275</v>
+        <v>0.31</v>
       </c>
       <c r="M66">
         <v>1.09604</v>
@@ -4520,19 +4523,19 @@
         <v>5540503</v>
       </c>
       <c r="Q66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U66" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4546,7 +4549,7 @@
         <v>51</v>
       </c>
       <c r="E67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F67">
         <v>0.5895</v>
@@ -4561,7 +4564,7 @@
         <v>1.5608</v>
       </c>
       <c r="L67">
-        <v>0.275</v>
+        <v>0.31</v>
       </c>
       <c r="M67">
         <v>1.09604</v>
@@ -4576,19 +4579,19 @@
         <v>5540503</v>
       </c>
       <c r="Q67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4602,13 +4605,13 @@
         <v>51</v>
       </c>
       <c r="E68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F68">
         <v>0.014</v>
       </c>
       <c r="G68">
-        <v>0.0751043009599003</v>
+        <v>0.07509781825192539</v>
       </c>
       <c r="H68">
         <v>2.267</v>
@@ -4617,7 +4620,7 @@
         <v>0.1302</v>
       </c>
       <c r="L68">
-        <v>0.013</v>
+        <v>0.0135</v>
       </c>
       <c r="M68">
         <v>0.03168</v>
@@ -4632,19 +4635,19 @@
         <v>5540503</v>
       </c>
       <c r="Q68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4658,13 +4661,13 @@
         <v>51</v>
       </c>
       <c r="E69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F69">
         <v>0.014</v>
       </c>
       <c r="G69">
-        <v>0.0751043009599003</v>
+        <v>0.07509781825192539</v>
       </c>
       <c r="H69">
         <v>2.267</v>
@@ -4673,7 +4676,7 @@
         <v>0.1302</v>
       </c>
       <c r="L69">
-        <v>0.013</v>
+        <v>0.0135</v>
       </c>
       <c r="M69">
         <v>0.03168</v>
@@ -4688,19 +4691,19 @@
         <v>5540503</v>
       </c>
       <c r="Q69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4717,7 +4720,7 @@
         <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F70">
         <v>0.5620000000000001</v>
@@ -4747,16 +4750,16 @@
         <v>5540503</v>
       </c>
       <c r="Q70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4773,7 +4776,7 @@
         <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F71">
         <v>1.525</v>
@@ -4788,7 +4791,7 @@
         <v>13.85</v>
       </c>
       <c r="L71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M71">
         <v>9.49</v>
@@ -4803,19 +4806,19 @@
         <v>5540503</v>
       </c>
       <c r="Q71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4832,28 +4835,28 @@
         <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F72">
         <v>1.96</v>
       </c>
       <c r="G72">
-        <v>2.2835929363731</v>
+        <v>2.41301934662801</v>
       </c>
       <c r="H72">
-        <v>5.88114896005094</v>
+        <v>7.17723851342943</v>
       </c>
       <c r="I72">
-        <v>5.51659</v>
+        <v>6.51568</v>
       </c>
       <c r="L72">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M72">
-        <v>3.78419</v>
+        <v>4.0467</v>
       </c>
       <c r="N72">
-        <v>4.809</v>
+        <v>5.31514</v>
       </c>
       <c r="O72">
         <v>1860701</v>
@@ -4862,19 +4865,19 @@
         <v>5540503</v>
       </c>
       <c r="Q72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4891,13 +4894,13 @@
         <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F73">
         <v>0.008</v>
       </c>
       <c r="G73">
-        <v>0.0088213398794995</v>
+        <v>0.008810549841701799</v>
       </c>
       <c r="H73">
         <v>0.033</v>
@@ -4921,19 +4924,19 @@
         <v>5540503</v>
       </c>
       <c r="Q73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T73" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4950,13 +4953,13 @@
         <v>52</v>
       </c>
       <c r="E74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F74">
         <v>0.008</v>
       </c>
       <c r="G74">
-        <v>0.0088213398794995</v>
+        <v>0.008810549841701799</v>
       </c>
       <c r="H74">
         <v>0.033</v>
@@ -4980,19 +4983,19 @@
         <v>5540503</v>
       </c>
       <c r="Q74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5009,7 +5012,7 @@
         <v>52</v>
       </c>
       <c r="E75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F75">
         <v>198</v>
@@ -5030,7 +5033,7 @@
         <v>40.6779661016949</v>
       </c>
       <c r="L75">
-        <v>381.5</v>
+        <v>346.5</v>
       </c>
       <c r="M75">
         <v>744.7</v>
@@ -5045,19 +5048,19 @@
         <v>5540503</v>
       </c>
       <c r="Q75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U75" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5074,7 +5077,7 @@
         <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F76">
         <v>198</v>
@@ -5095,7 +5098,7 @@
         <v>40.6779661016949</v>
       </c>
       <c r="L76">
-        <v>381.5</v>
+        <v>346.5</v>
       </c>
       <c r="M76">
         <v>744.7</v>
@@ -5110,19 +5113,19 @@
         <v>5540503</v>
       </c>
       <c r="Q76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5139,7 +5142,7 @@
         <v>52</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F77">
         <v>198</v>
@@ -5160,7 +5163,7 @@
         <v>40.6779661016949</v>
       </c>
       <c r="L77">
-        <v>381.5</v>
+        <v>346.5</v>
       </c>
       <c r="M77">
         <v>744.7</v>
@@ -5175,19 +5178,19 @@
         <v>5540503</v>
       </c>
       <c r="Q77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U77" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5204,7 +5207,7 @@
         <v>52</v>
       </c>
       <c r="E78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F78">
         <v>198</v>
@@ -5225,7 +5228,7 @@
         <v>40.6779661016949</v>
       </c>
       <c r="L78">
-        <v>381.5</v>
+        <v>346.5</v>
       </c>
       <c r="M78">
         <v>744.7</v>
@@ -5240,19 +5243,19 @@
         <v>5540503</v>
       </c>
       <c r="Q78" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U78" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5269,7 +5272,7 @@
         <v>52</v>
       </c>
       <c r="E79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F79">
         <v>123</v>
@@ -5299,16 +5302,16 @@
         <v>5540503</v>
       </c>
       <c r="Q79" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S79" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5325,13 +5328,13 @@
         <v>52</v>
       </c>
       <c r="E80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F80">
         <v>0.0033</v>
       </c>
       <c r="G80">
-        <v>0.0053029400461283</v>
+        <v>0.0052992110651281</v>
       </c>
       <c r="H80">
         <v>0.0344681852524333</v>
@@ -5340,7 +5343,7 @@
         <v>0.01824</v>
       </c>
       <c r="L80">
-        <v>0.00102</v>
+        <v>0.00117</v>
       </c>
       <c r="M80">
         <v>0.0091</v>
@@ -5355,19 +5358,19 @@
         <v>5540503</v>
       </c>
       <c r="Q80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S80" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U80" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5384,13 +5387,13 @@
         <v>52</v>
       </c>
       <c r="E81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F81">
         <v>0.0033</v>
       </c>
       <c r="G81">
-        <v>0.0053029400461283</v>
+        <v>0.0052992110651281</v>
       </c>
       <c r="H81">
         <v>0.0344681852524333</v>
@@ -5399,7 +5402,7 @@
         <v>0.01824</v>
       </c>
       <c r="L81">
-        <v>0.00102</v>
+        <v>0.00117</v>
       </c>
       <c r="M81">
         <v>0.0091</v>
@@ -5414,19 +5417,19 @@
         <v>5540503</v>
       </c>
       <c r="Q81" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5443,13 +5446,13 @@
         <v>52</v>
       </c>
       <c r="E82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F82">
         <v>0.47</v>
       </c>
       <c r="G82">
-        <v>0.500798807616213</v>
+        <v>0.500789078781995</v>
       </c>
       <c r="H82">
         <v>1.4</v>
@@ -5458,7 +5461,7 @@
         <v>1.2385</v>
       </c>
       <c r="L82">
-        <v>0.15775</v>
+        <v>0.18335</v>
       </c>
       <c r="M82">
         <v>0.8883</v>
@@ -5473,19 +5476,19 @@
         <v>5540503</v>
       </c>
       <c r="Q82" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U82" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5502,13 +5505,13 @@
         <v>52</v>
       </c>
       <c r="E83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F83">
         <v>0.47</v>
       </c>
       <c r="G83">
-        <v>0.500798807616213</v>
+        <v>0.500789078781995</v>
       </c>
       <c r="H83">
         <v>1.4</v>
@@ -5517,7 +5520,7 @@
         <v>1.2385</v>
       </c>
       <c r="L83">
-        <v>0.15775</v>
+        <v>0.18335</v>
       </c>
       <c r="M83">
         <v>0.8883</v>
@@ -5532,19 +5535,19 @@
         <v>5540503</v>
       </c>
       <c r="Q83" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U83" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5561,7 +5564,7 @@
         <v>52</v>
       </c>
       <c r="E84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F84">
         <v>6.51</v>
@@ -5591,16 +5594,16 @@
         <v>5540503</v>
       </c>
       <c r="Q84" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S84" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5614,13 +5617,13 @@
         <v>52</v>
       </c>
       <c r="E85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F85">
         <v>0.4769</v>
       </c>
       <c r="G85">
-        <v>0.511202276408907</v>
+        <v>0.511172182618654</v>
       </c>
       <c r="H85">
         <v>1.413</v>
@@ -5629,7 +5632,7 @@
         <v>1.24785</v>
       </c>
       <c r="L85">
-        <v>0.16525</v>
+        <v>0.1911</v>
       </c>
       <c r="M85">
         <v>0.89684</v>
@@ -5644,19 +5647,19 @@
         <v>5540503</v>
       </c>
       <c r="Q85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S85" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T85" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U85" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5670,13 +5673,13 @@
         <v>52</v>
       </c>
       <c r="E86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F86">
         <v>0.4769</v>
       </c>
       <c r="G86">
-        <v>0.511202276408907</v>
+        <v>0.511172182618654</v>
       </c>
       <c r="H86">
         <v>1.413</v>
@@ -5685,7 +5688,7 @@
         <v>1.24785</v>
       </c>
       <c r="L86">
-        <v>0.16525</v>
+        <v>0.1911</v>
       </c>
       <c r="M86">
         <v>0.89684</v>
@@ -5700,19 +5703,19 @@
         <v>5540503</v>
       </c>
       <c r="Q86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R86" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S86" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U86" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5726,7 +5729,7 @@
         <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F87">
         <v>0.578</v>
@@ -5741,7 +5744,7 @@
         <v>1.4</v>
       </c>
       <c r="L87">
-        <v>0.2595</v>
+        <v>0.29</v>
       </c>
       <c r="M87">
         <v>0.97276</v>
@@ -5756,19 +5759,19 @@
         <v>5540503</v>
       </c>
       <c r="Q87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R87" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S87" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U87" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5782,7 +5785,7 @@
         <v>52</v>
       </c>
       <c r="E88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F88">
         <v>0.578</v>
@@ -5797,7 +5800,7 @@
         <v>1.4</v>
       </c>
       <c r="L88">
-        <v>0.2595</v>
+        <v>0.29</v>
       </c>
       <c r="M88">
         <v>0.97276</v>
@@ -5812,19 +5815,19 @@
         <v>5540503</v>
       </c>
       <c r="Q88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S88" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T88" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U88" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5838,13 +5841,13 @@
         <v>52</v>
       </c>
       <c r="E89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F89">
         <v>0.013</v>
       </c>
       <c r="G89">
-        <v>0.0569415161978681</v>
+        <v>0.0569351433662995</v>
       </c>
       <c r="H89">
         <v>2.267</v>
@@ -5853,7 +5856,7 @@
         <v>0.0864</v>
       </c>
       <c r="L89">
-        <v>0.012</v>
+        <v>0.0125</v>
       </c>
       <c r="M89">
         <v>0.022</v>
@@ -5868,19 +5871,19 @@
         <v>5540503</v>
       </c>
       <c r="Q89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S89" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T89" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U89" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5894,13 +5897,13 @@
         <v>52</v>
       </c>
       <c r="E90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F90">
         <v>0.013</v>
       </c>
       <c r="G90">
-        <v>0.0569415161978681</v>
+        <v>0.0569351433662995</v>
       </c>
       <c r="H90">
         <v>2.267</v>
@@ -5909,7 +5912,7 @@
         <v>0.0864</v>
       </c>
       <c r="L90">
-        <v>0.012</v>
+        <v>0.0125</v>
       </c>
       <c r="M90">
         <v>0.022</v>
@@ -5924,19 +5927,19 @@
         <v>5540503</v>
       </c>
       <c r="Q90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S90" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T90" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U90" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5953,7 +5956,7 @@
         <v>53</v>
       </c>
       <c r="E91" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F91">
         <v>0.5620000000000001</v>
@@ -5983,16 +5986,16 @@
         <v>5540503</v>
       </c>
       <c r="Q91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T91" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6009,7 +6012,7 @@
         <v>53</v>
       </c>
       <c r="E92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F92">
         <v>3</v>
@@ -6039,19 +6042,19 @@
         <v>5540503</v>
       </c>
       <c r="Q92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U92" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6068,25 +6071,25 @@
         <v>53</v>
       </c>
       <c r="E93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F93">
         <v>1.91</v>
       </c>
       <c r="G93">
-        <v>2.21294008039909</v>
+        <v>2.27353893358641</v>
       </c>
       <c r="H93">
-        <v>5.88114896005094</v>
+        <v>7.17723851342943</v>
       </c>
       <c r="I93">
         <v>4.9125</v>
       </c>
       <c r="L93">
-        <v>2.81</v>
+        <v>2.715</v>
       </c>
       <c r="M93">
-        <v>3.5113</v>
+        <v>3.7126</v>
       </c>
       <c r="N93">
         <v>4.5728</v>
@@ -6098,19 +6101,19 @@
         <v>5540503</v>
       </c>
       <c r="Q93" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R93" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S93" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T93" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U93" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6127,13 +6130,13 @@
         <v>53</v>
       </c>
       <c r="E94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F94">
         <v>0.008</v>
       </c>
       <c r="G94">
-        <v>0.008925371056980699</v>
+        <v>0.0089149187433076</v>
       </c>
       <c r="H94">
         <v>0.033</v>
@@ -6142,7 +6145,7 @@
         <v>0.0155</v>
       </c>
       <c r="L94">
-        <v>0.0075</v>
+        <v>0.008</v>
       </c>
       <c r="M94">
         <v>0.012</v>
@@ -6157,19 +6160,19 @@
         <v>5540503</v>
       </c>
       <c r="Q94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S94" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T94" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U94" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6186,13 +6189,13 @@
         <v>53</v>
       </c>
       <c r="E95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F95">
         <v>0.008</v>
       </c>
       <c r="G95">
-        <v>0.008925371056980699</v>
+        <v>0.0089149187433076</v>
       </c>
       <c r="H95">
         <v>0.033</v>
@@ -6201,7 +6204,7 @@
         <v>0.0155</v>
       </c>
       <c r="L95">
-        <v>0.0075</v>
+        <v>0.008</v>
       </c>
       <c r="M95">
         <v>0.012</v>
@@ -6216,19 +6219,19 @@
         <v>5540503</v>
       </c>
       <c r="Q95" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S95" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T95" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U95" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6245,7 +6248,7 @@
         <v>53</v>
       </c>
       <c r="E96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F96">
         <v>175.5</v>
@@ -6266,7 +6269,7 @@
         <v>33.3333333333333</v>
       </c>
       <c r="L96">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="M96">
         <v>485.4</v>
@@ -6281,19 +6284,19 @@
         <v>5540503</v>
       </c>
       <c r="Q96" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R96" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S96" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T96" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U96" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6310,7 +6313,7 @@
         <v>53</v>
       </c>
       <c r="E97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F97">
         <v>175.5</v>
@@ -6331,7 +6334,7 @@
         <v>33.3333333333333</v>
       </c>
       <c r="L97">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="M97">
         <v>485.4</v>
@@ -6346,19 +6349,19 @@
         <v>5540503</v>
       </c>
       <c r="Q97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S97" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T97" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U97" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6375,7 +6378,7 @@
         <v>53</v>
       </c>
       <c r="E98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F98">
         <v>175.5</v>
@@ -6396,7 +6399,7 @@
         <v>33.3333333333333</v>
       </c>
       <c r="L98">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="M98">
         <v>485.4</v>
@@ -6411,19 +6414,19 @@
         <v>5540503</v>
       </c>
       <c r="Q98" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R98" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S98" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U98" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6440,7 +6443,7 @@
         <v>53</v>
       </c>
       <c r="E99" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F99">
         <v>175.5</v>
@@ -6461,7 +6464,7 @@
         <v>33.3333333333333</v>
       </c>
       <c r="L99">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="M99">
         <v>485.4</v>
@@ -6476,19 +6479,19 @@
         <v>5540503</v>
       </c>
       <c r="Q99" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S99" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U99" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6505,7 +6508,7 @@
         <v>53</v>
       </c>
       <c r="E100" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F100">
         <v>114</v>
@@ -6535,16 +6538,16 @@
         <v>5540503</v>
       </c>
       <c r="Q100" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R100" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S100" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6561,13 +6564,13 @@
         <v>53</v>
       </c>
       <c r="E101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F101">
-        <v>0.00224</v>
+        <v>0.0022</v>
       </c>
       <c r="G101">
-        <v>0.004079395538104</v>
+        <v>0.004068320575074</v>
       </c>
       <c r="H101">
         <v>0.0210659745039018</v>
@@ -6576,7 +6579,7 @@
         <v>0.01347</v>
       </c>
       <c r="L101">
-        <v>0.00102</v>
+        <v>0.00118</v>
       </c>
       <c r="M101">
         <v>0.00829</v>
@@ -6591,19 +6594,19 @@
         <v>5540503</v>
       </c>
       <c r="Q101" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R101" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S101" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T101" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U101" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6620,13 +6623,13 @@
         <v>53</v>
       </c>
       <c r="E102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F102">
-        <v>0.00224</v>
+        <v>0.0022</v>
       </c>
       <c r="G102">
-        <v>0.004079395538104</v>
+        <v>0.004068320575074</v>
       </c>
       <c r="H102">
         <v>0.0210659745039018</v>
@@ -6635,7 +6638,7 @@
         <v>0.01347</v>
       </c>
       <c r="L102">
-        <v>0.00102</v>
+        <v>0.00118</v>
       </c>
       <c r="M102">
         <v>0.00829</v>
@@ -6650,19 +6653,19 @@
         <v>5540503</v>
       </c>
       <c r="Q102" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R102" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S102" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T102" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U102" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6679,13 +6682,13 @@
         <v>53</v>
       </c>
       <c r="E103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F103">
         <v>0.46955</v>
       </c>
       <c r="G103">
-        <v>0.506902160822609</v>
+        <v>0.506892594135629</v>
       </c>
       <c r="H103">
         <v>1.51</v>
@@ -6694,7 +6697,7 @@
         <v>1.2907</v>
       </c>
       <c r="L103">
-        <v>0.137</v>
+        <v>0.16655</v>
       </c>
       <c r="M103">
         <v>0.91983</v>
@@ -6709,19 +6712,19 @@
         <v>5540503</v>
       </c>
       <c r="Q103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R103" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S103" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T103" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U103" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6738,13 +6741,13 @@
         <v>53</v>
       </c>
       <c r="E104" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F104">
         <v>0.46955</v>
       </c>
       <c r="G104">
-        <v>0.506902160822609</v>
+        <v>0.506892594135629</v>
       </c>
       <c r="H104">
         <v>1.51</v>
@@ -6753,7 +6756,7 @@
         <v>1.2907</v>
       </c>
       <c r="L104">
-        <v>0.137</v>
+        <v>0.16655</v>
       </c>
       <c r="M104">
         <v>0.91983</v>
@@ -6768,19 +6771,19 @@
         <v>5540503</v>
       </c>
       <c r="Q104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S104" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T104" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U104" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6797,7 +6800,7 @@
         <v>53</v>
       </c>
       <c r="E105" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F105">
         <v>6.54</v>
@@ -6827,16 +6830,16 @@
         <v>5540503</v>
       </c>
       <c r="Q105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S105" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T105" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6850,13 +6853,13 @@
         <v>53</v>
       </c>
       <c r="E106" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F106">
         <v>0.4768</v>
       </c>
       <c r="G106">
-        <v>0.516282238468758</v>
+        <v>0.516252646241676</v>
       </c>
       <c r="H106">
         <v>1.515</v>
@@ -6865,7 +6868,7 @@
         <v>1.29715</v>
       </c>
       <c r="L106">
-        <v>0.15</v>
+        <v>0.1728</v>
       </c>
       <c r="M106">
         <v>0.9281199999999999</v>
@@ -6880,19 +6883,19 @@
         <v>5540503</v>
       </c>
       <c r="Q106" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R106" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S106" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T106" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U106" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6906,13 +6909,13 @@
         <v>53</v>
       </c>
       <c r="E107" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F107">
         <v>0.4768</v>
       </c>
       <c r="G107">
-        <v>0.516282238468758</v>
+        <v>0.516252646241676</v>
       </c>
       <c r="H107">
         <v>1.515</v>
@@ -6921,7 +6924,7 @@
         <v>1.29715</v>
       </c>
       <c r="L107">
-        <v>0.15</v>
+        <v>0.1728</v>
       </c>
       <c r="M107">
         <v>0.9281199999999999</v>
@@ -6936,19 +6939,19 @@
         <v>5540503</v>
       </c>
       <c r="Q107" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R107" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S107" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T107" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U107" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6962,7 +6965,7 @@
         <v>53</v>
       </c>
       <c r="E108" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F108">
         <v>0.5775</v>
@@ -6977,7 +6980,7 @@
         <v>1.4</v>
       </c>
       <c r="L108">
-        <v>0.222</v>
+        <v>0.2595</v>
       </c>
       <c r="M108">
         <v>0.9809</v>
@@ -6992,19 +6995,19 @@
         <v>5540503</v>
       </c>
       <c r="Q108" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T108" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U108" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7018,7 +7021,7 @@
         <v>53</v>
       </c>
       <c r="E109" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F109">
         <v>0.5775</v>
@@ -7033,7 +7036,7 @@
         <v>1.4</v>
       </c>
       <c r="L109">
-        <v>0.222</v>
+        <v>0.2595</v>
       </c>
       <c r="M109">
         <v>0.9809</v>
@@ -7048,19 +7051,19 @@
         <v>5540503</v>
       </c>
       <c r="Q109" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R109" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U109" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7074,13 +7077,13 @@
         <v>53</v>
       </c>
       <c r="E110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F110">
         <v>0.0125</v>
       </c>
       <c r="G110">
-        <v>0.0188924909279036</v>
+        <v>0.0188862243101946</v>
       </c>
       <c r="H110">
         <v>0.137</v>
@@ -7104,19 +7107,19 @@
         <v>5540503</v>
       </c>
       <c r="Q110" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R110" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T110" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U110" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7130,13 +7133,13 @@
         <v>53</v>
       </c>
       <c r="E111" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F111">
         <v>0.0125</v>
       </c>
       <c r="G111">
-        <v>0.0188924909279036</v>
+        <v>0.0188862243101946</v>
       </c>
       <c r="H111">
         <v>0.137</v>
@@ -7160,19 +7163,19 @@
         <v>5540503</v>
       </c>
       <c r="Q111" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S111" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T111" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U111" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7189,7 +7192,7 @@
         <v>54</v>
       </c>
       <c r="E112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F112">
         <v>0.5620000000000001</v>
@@ -7219,16 +7222,16 @@
         <v>5540503</v>
       </c>
       <c r="Q112" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R112" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S112" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7245,7 +7248,7 @@
         <v>54</v>
       </c>
       <c r="E113" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F113">
         <v>2.05</v>
@@ -7260,7 +7263,7 @@
         <v>23.1</v>
       </c>
       <c r="L113">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M113">
         <v>10.82</v>
@@ -7275,19 +7278,19 @@
         <v>5540503</v>
       </c>
       <c r="Q113" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R113" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S113" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T113" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U113" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7304,22 +7307,22 @@
         <v>54</v>
       </c>
       <c r="E114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F114">
         <v>1.985</v>
       </c>
       <c r="G114">
-        <v>2.19194973965547</v>
+        <v>2.23364640478403</v>
       </c>
       <c r="H114">
-        <v>5.88114896005094</v>
+        <v>7.17723851342943</v>
       </c>
       <c r="I114">
         <v>4.92</v>
       </c>
       <c r="L114">
-        <v>2.81</v>
+        <v>2.75</v>
       </c>
       <c r="M114">
         <v>3.65</v>
@@ -7334,19 +7337,19 @@
         <v>5540503</v>
       </c>
       <c r="Q114" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R114" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T114" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U114" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7363,13 +7366,13 @@
         <v>54</v>
       </c>
       <c r="E115" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F115">
         <v>0.01</v>
       </c>
       <c r="G115">
-        <v>0.0103130220938469</v>
+        <v>0.0103109786956597</v>
       </c>
       <c r="H115">
         <v>0.037</v>
@@ -7378,7 +7381,7 @@
         <v>0.0236</v>
       </c>
       <c r="L115">
-        <v>0.0075</v>
+        <v>0.008</v>
       </c>
       <c r="M115">
         <v>0.012</v>
@@ -7393,19 +7396,19 @@
         <v>5540503</v>
       </c>
       <c r="Q115" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R115" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S115" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T115" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U115" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7422,13 +7425,13 @@
         <v>54</v>
       </c>
       <c r="E116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F116">
         <v>0.01</v>
       </c>
       <c r="G116">
-        <v>0.0103130220938469</v>
+        <v>0.0103109786956597</v>
       </c>
       <c r="H116">
         <v>0.037</v>
@@ -7437,7 +7440,7 @@
         <v>0.0236</v>
       </c>
       <c r="L116">
-        <v>0.0075</v>
+        <v>0.008</v>
       </c>
       <c r="M116">
         <v>0.012</v>
@@ -7452,19 +7455,19 @@
         <v>5540503</v>
       </c>
       <c r="Q116" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R116" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S116" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T116" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7481,7 +7484,7 @@
         <v>54</v>
       </c>
       <c r="E117" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F117">
         <v>202</v>
@@ -7502,7 +7505,7 @@
         <v>40.6779661016949</v>
       </c>
       <c r="L117">
-        <v>450</v>
+        <v>373</v>
       </c>
       <c r="M117">
         <v>545.6900000000001</v>
@@ -7517,19 +7520,19 @@
         <v>5540503</v>
       </c>
       <c r="Q117" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R117" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S117" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T117" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U117" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7546,7 +7549,7 @@
         <v>54</v>
       </c>
       <c r="E118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F118">
         <v>202</v>
@@ -7567,7 +7570,7 @@
         <v>40.6779661016949</v>
       </c>
       <c r="L118">
-        <v>450</v>
+        <v>373</v>
       </c>
       <c r="M118">
         <v>545.6900000000001</v>
@@ -7582,19 +7585,19 @@
         <v>5540503</v>
       </c>
       <c r="Q118" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R118" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S118" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T118" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U118" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7611,7 +7614,7 @@
         <v>54</v>
       </c>
       <c r="E119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F119">
         <v>202</v>
@@ -7632,7 +7635,7 @@
         <v>40.6779661016949</v>
       </c>
       <c r="L119">
-        <v>450</v>
+        <v>373</v>
       </c>
       <c r="M119">
         <v>545.6900000000001</v>
@@ -7647,19 +7650,19 @@
         <v>5540503</v>
       </c>
       <c r="Q119" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R119" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S119" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T119" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U119" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7676,7 +7679,7 @@
         <v>54</v>
       </c>
       <c r="E120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F120">
         <v>202</v>
@@ -7697,7 +7700,7 @@
         <v>40.6779661016949</v>
       </c>
       <c r="L120">
-        <v>450</v>
+        <v>373</v>
       </c>
       <c r="M120">
         <v>545.6900000000001</v>
@@ -7712,19 +7715,19 @@
         <v>5540503</v>
       </c>
       <c r="Q120" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R120" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S120" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T120" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U120" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7741,7 +7744,7 @@
         <v>54</v>
       </c>
       <c r="E121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F121">
         <v>114</v>
@@ -7771,16 +7774,16 @@
         <v>5540503</v>
       </c>
       <c r="Q121" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R121" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S121" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T121" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7797,13 +7800,13 @@
         <v>54</v>
       </c>
       <c r="E122" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F122">
-        <v>0.00199</v>
+        <v>0.00194</v>
       </c>
       <c r="G122">
-        <v>0.0033108013587383</v>
+        <v>0.0032938958537155</v>
       </c>
       <c r="H122">
         <v>0.0227589915651739</v>
@@ -7812,10 +7815,10 @@
         <v>0.01037</v>
       </c>
       <c r="L122">
-        <v>0.00102</v>
+        <v>0.00118</v>
       </c>
       <c r="M122">
-        <v>0.00615</v>
+        <v>0.00608</v>
       </c>
       <c r="N122">
         <v>0.00957</v>
@@ -7827,19 +7830,19 @@
         <v>5540503</v>
       </c>
       <c r="Q122" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R122" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S122" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T122" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U122" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7856,13 +7859,13 @@
         <v>54</v>
       </c>
       <c r="E123" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F123">
-        <v>0.00199</v>
+        <v>0.00194</v>
       </c>
       <c r="G123">
-        <v>0.0033108013587383</v>
+        <v>0.0032938958537155</v>
       </c>
       <c r="H123">
         <v>0.0227589915651739</v>
@@ -7871,10 +7874,10 @@
         <v>0.01037</v>
       </c>
       <c r="L123">
-        <v>0.00102</v>
+        <v>0.00118</v>
       </c>
       <c r="M123">
-        <v>0.00615</v>
+        <v>0.00608</v>
       </c>
       <c r="N123">
         <v>0.00957</v>
@@ -7886,19 +7889,19 @@
         <v>5540503</v>
       </c>
       <c r="Q123" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R123" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S123" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T123" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U123" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7915,13 +7918,13 @@
         <v>54</v>
       </c>
       <c r="E124" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F124">
         <v>0.4689</v>
       </c>
       <c r="G124">
-        <v>0.506290333039942</v>
+        <v>0.506280604205724</v>
       </c>
       <c r="H124">
         <v>1.51</v>
@@ -7930,7 +7933,7 @@
         <v>1.299</v>
       </c>
       <c r="L124">
-        <v>0.1075</v>
+        <v>0.13</v>
       </c>
       <c r="M124">
         <v>0.91042</v>
@@ -7945,19 +7948,19 @@
         <v>5540503</v>
       </c>
       <c r="Q124" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R124" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S124" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T124" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U124" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7974,13 +7977,13 @@
         <v>54</v>
       </c>
       <c r="E125" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F125">
         <v>0.4689</v>
       </c>
       <c r="G125">
-        <v>0.506290333039942</v>
+        <v>0.506280604205724</v>
       </c>
       <c r="H125">
         <v>1.51</v>
@@ -7989,7 +7992,7 @@
         <v>1.299</v>
       </c>
       <c r="L125">
-        <v>0.1075</v>
+        <v>0.13</v>
       </c>
       <c r="M125">
         <v>0.91042</v>
@@ -8004,19 +8007,19 @@
         <v>5540503</v>
       </c>
       <c r="Q125" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R125" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S125" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T125" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U125" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8033,7 +8036,7 @@
         <v>54</v>
       </c>
       <c r="E126" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F126">
         <v>6.54</v>
@@ -8063,16 +8066,16 @@
         <v>5540503</v>
       </c>
       <c r="Q126" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R126" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S126" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T126" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8086,13 +8089,13 @@
         <v>54</v>
       </c>
       <c r="E127" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F127">
         <v>0.4767</v>
       </c>
       <c r="G127">
-        <v>0.515880242510602</v>
+        <v>0.515850148720349</v>
       </c>
       <c r="H127">
         <v>1.515</v>
@@ -8101,7 +8104,7 @@
         <v>1.30576</v>
       </c>
       <c r="L127">
-        <v>0.115</v>
+        <v>0.145</v>
       </c>
       <c r="M127">
         <v>0.91575</v>
@@ -8116,19 +8119,19 @@
         <v>5540503</v>
       </c>
       <c r="Q127" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R127" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S127" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T127" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U127" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8142,13 +8145,13 @@
         <v>54</v>
       </c>
       <c r="E128" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F128">
         <v>0.4767</v>
       </c>
       <c r="G128">
-        <v>0.515880242510602</v>
+        <v>0.515850148720349</v>
       </c>
       <c r="H128">
         <v>1.515</v>
@@ -8157,7 +8160,7 @@
         <v>1.30576</v>
       </c>
       <c r="L128">
-        <v>0.115</v>
+        <v>0.145</v>
       </c>
       <c r="M128">
         <v>0.91575</v>
@@ -8172,19 +8175,19 @@
         <v>5540503</v>
       </c>
       <c r="Q128" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R128" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S128" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T128" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U128" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8198,7 +8201,7 @@
         <v>54</v>
       </c>
       <c r="E129" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F129">
         <v>0.577</v>
@@ -8213,7 +8216,7 @@
         <v>1.39565</v>
       </c>
       <c r="L129">
-        <v>0.185</v>
+        <v>0.22</v>
       </c>
       <c r="M129">
         <v>0.9694700000000001</v>
@@ -8228,19 +8231,19 @@
         <v>5540503</v>
       </c>
       <c r="Q129" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R129" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S129" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T129" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U129" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8254,7 +8257,7 @@
         <v>54</v>
       </c>
       <c r="E130" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F130">
         <v>0.577</v>
@@ -8269,7 +8272,7 @@
         <v>1.39565</v>
       </c>
       <c r="L130">
-        <v>0.185</v>
+        <v>0.22</v>
       </c>
       <c r="M130">
         <v>0.9694700000000001</v>
@@ -8284,19 +8287,19 @@
         <v>5540503</v>
       </c>
       <c r="Q130" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R130" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S130" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T130" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U130" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8310,7 +8313,7 @@
         <v>54</v>
       </c>
       <c r="E131" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F131">
         <v>0.013</v>
@@ -8340,19 +8343,19 @@
         <v>5540503</v>
       </c>
       <c r="Q131" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R131" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S131" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T131" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U131" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8366,7 +8369,7 @@
         <v>54</v>
       </c>
       <c r="E132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F132">
         <v>0.013</v>
@@ -8396,19 +8399,19 @@
         <v>5540503</v>
       </c>
       <c r="Q132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R132" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S132" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T132" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U132" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8425,7 +8428,7 @@
         <v>55</v>
       </c>
       <c r="E133" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F133">
         <v>0.5659999999999999</v>
@@ -8455,16 +8458,16 @@
         <v>5540503</v>
       </c>
       <c r="Q133" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S133" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T133" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8481,7 +8484,7 @@
         <v>55</v>
       </c>
       <c r="E134" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F134">
         <v>1.7</v>
@@ -8511,19 +8514,19 @@
         <v>5540503</v>
       </c>
       <c r="Q134" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R134" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S134" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T134" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U134" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8540,22 +8543,22 @@
         <v>55</v>
       </c>
       <c r="E135" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F135">
         <v>1.8</v>
       </c>
       <c r="G135">
-        <v>1.86705186105254</v>
+        <v>1.89614477026859</v>
       </c>
       <c r="H135">
-        <v>5.72259305262683</v>
+        <v>7.17723851342943</v>
       </c>
       <c r="I135">
         <v>4.43</v>
       </c>
       <c r="L135">
-        <v>2.48</v>
+        <v>2.23</v>
       </c>
       <c r="M135">
         <v>2.95</v>
@@ -8570,19 +8573,19 @@
         <v>5540503</v>
       </c>
       <c r="Q135" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R135" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S135" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T135" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U135" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8599,13 +8602,13 @@
         <v>55</v>
       </c>
       <c r="E136" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F136">
         <v>0.011</v>
       </c>
       <c r="G136">
-        <v>0.0119401407379147</v>
+        <v>0.0119380973397275</v>
       </c>
       <c r="H136">
         <v>0.037</v>
@@ -8614,7 +8617,7 @@
         <v>0.0272</v>
       </c>
       <c r="L136">
-        <v>0.008500000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="M136">
         <v>0.01547</v>
@@ -8629,19 +8632,19 @@
         <v>5540503</v>
       </c>
       <c r="Q136" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R136" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S136" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T136" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U136" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8658,13 +8661,13 @@
         <v>55</v>
       </c>
       <c r="E137" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F137">
         <v>0.011</v>
       </c>
       <c r="G137">
-        <v>0.0119401407379147</v>
+        <v>0.0119380973397275</v>
       </c>
       <c r="H137">
         <v>0.037</v>
@@ -8673,7 +8676,7 @@
         <v>0.0272</v>
       </c>
       <c r="L137">
-        <v>0.008500000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="M137">
         <v>0.01547</v>
@@ -8688,19 +8691,19 @@
         <v>5540503</v>
       </c>
       <c r="Q137" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R137" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S137" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T137" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8717,7 +8720,7 @@
         <v>55</v>
       </c>
       <c r="E138" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F138">
         <v>202</v>
@@ -8738,7 +8741,7 @@
         <v>42.3728813559322</v>
       </c>
       <c r="L138">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="M138">
         <v>578.8</v>
@@ -8753,19 +8756,19 @@
         <v>5540503</v>
       </c>
       <c r="Q138" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R138" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S138" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T138" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U138" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8782,7 +8785,7 @@
         <v>55</v>
       </c>
       <c r="E139" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F139">
         <v>202</v>
@@ -8803,7 +8806,7 @@
         <v>42.3728813559322</v>
       </c>
       <c r="L139">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="M139">
         <v>578.8</v>
@@ -8818,19 +8821,19 @@
         <v>5540503</v>
       </c>
       <c r="Q139" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R139" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S139" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T139" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U139" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8847,7 +8850,7 @@
         <v>55</v>
       </c>
       <c r="E140" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F140">
         <v>202</v>
@@ -8868,7 +8871,7 @@
         <v>42.3728813559322</v>
       </c>
       <c r="L140">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="M140">
         <v>578.8</v>
@@ -8883,19 +8886,19 @@
         <v>5540503</v>
       </c>
       <c r="Q140" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R140" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S140" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T140" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U140" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8912,7 +8915,7 @@
         <v>55</v>
       </c>
       <c r="E141" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F141">
         <v>202</v>
@@ -8933,7 +8936,7 @@
         <v>42.3728813559322</v>
       </c>
       <c r="L141">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="M141">
         <v>578.8</v>
@@ -8948,19 +8951,19 @@
         <v>5540503</v>
       </c>
       <c r="Q141" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R141" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S141" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T141" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U141" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8977,7 +8980,7 @@
         <v>55</v>
       </c>
       <c r="E142" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F142">
         <v>114</v>
@@ -9007,16 +9010,16 @@
         <v>5540503</v>
       </c>
       <c r="Q142" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R142" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S142" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T142" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9033,13 +9036,13 @@
         <v>55</v>
       </c>
       <c r="E143" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F143">
-        <v>0.00228</v>
+        <v>0.00224</v>
       </c>
       <c r="G143">
-        <v>0.003472848976414</v>
+        <v>0.0034534325108257</v>
       </c>
       <c r="H143">
         <v>0.0227589915651739</v>
@@ -9048,10 +9051,10 @@
         <v>0.009769999999999999</v>
       </c>
       <c r="L143">
-        <v>0.00225</v>
+        <v>0.00131</v>
       </c>
       <c r="M143">
-        <v>0.00575</v>
+        <v>0.00568</v>
       </c>
       <c r="N143">
         <v>0.00945</v>
@@ -9063,19 +9066,19 @@
         <v>5540503</v>
       </c>
       <c r="Q143" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R143" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S143" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T143" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U143" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9092,13 +9095,13 @@
         <v>55</v>
       </c>
       <c r="E144" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F144">
-        <v>0.00228</v>
+        <v>0.00224</v>
       </c>
       <c r="G144">
-        <v>0.003472848976414</v>
+        <v>0.0034534325108257</v>
       </c>
       <c r="H144">
         <v>0.0227589915651739</v>
@@ -9107,10 +9110,10 @@
         <v>0.009769999999999999</v>
       </c>
       <c r="L144">
-        <v>0.00225</v>
+        <v>0.00131</v>
       </c>
       <c r="M144">
-        <v>0.00575</v>
+        <v>0.00568</v>
       </c>
       <c r="N144">
         <v>0.00945</v>
@@ -9122,19 +9125,19 @@
         <v>5540503</v>
       </c>
       <c r="Q144" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R144" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S144" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T144" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U144" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9151,13 +9154,13 @@
         <v>55</v>
       </c>
       <c r="E145" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F145">
         <v>0.511</v>
       </c>
       <c r="G145">
-        <v>0.533132705921297</v>
+        <v>0.53312297708708</v>
       </c>
       <c r="H145">
         <v>1.51</v>
@@ -9166,7 +9169,7 @@
         <v>1.2945</v>
       </c>
       <c r="L145">
-        <v>0.137</v>
+        <v>0.1655</v>
       </c>
       <c r="M145">
         <v>0.91042</v>
@@ -9181,19 +9184,19 @@
         <v>5540503</v>
       </c>
       <c r="Q145" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R145" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S145" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T145" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U145" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9210,13 +9213,13 @@
         <v>55</v>
       </c>
       <c r="E146" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F146">
         <v>0.511</v>
       </c>
       <c r="G146">
-        <v>0.533132705921297</v>
+        <v>0.53312297708708</v>
       </c>
       <c r="H146">
         <v>1.51</v>
@@ -9225,7 +9228,7 @@
         <v>1.2945</v>
       </c>
       <c r="L146">
-        <v>0.137</v>
+        <v>0.1655</v>
       </c>
       <c r="M146">
         <v>0.91042</v>
@@ -9240,19 +9243,19 @@
         <v>5540503</v>
       </c>
       <c r="Q146" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R146" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S146" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T146" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U146" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9269,7 +9272,7 @@
         <v>55</v>
       </c>
       <c r="E147" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F147">
         <v>6.54</v>
@@ -9299,16 +9302,16 @@
         <v>5540503</v>
       </c>
       <c r="Q147" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R147" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S147" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T147" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9322,13 +9325,13 @@
         <v>55</v>
       </c>
       <c r="E148" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F148">
         <v>0.52</v>
       </c>
       <c r="G148">
-        <v>0.54312770013772</v>
+        <v>0.543097606347467</v>
       </c>
       <c r="H148">
         <v>1.515</v>
@@ -9337,7 +9340,7 @@
         <v>1.29856</v>
       </c>
       <c r="L148">
-        <v>0.15</v>
+        <v>0.1725</v>
       </c>
       <c r="M148">
         <v>0.91575</v>
@@ -9352,19 +9355,19 @@
         <v>5540503</v>
       </c>
       <c r="Q148" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R148" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S148" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T148" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U148" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9378,13 +9381,13 @@
         <v>55</v>
       </c>
       <c r="E149" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F149">
         <v>0.52</v>
       </c>
       <c r="G149">
-        <v>0.54312770013772</v>
+        <v>0.543097606347467</v>
       </c>
       <c r="H149">
         <v>1.515</v>
@@ -9393,7 +9396,7 @@
         <v>1.29856</v>
       </c>
       <c r="L149">
-        <v>0.15</v>
+        <v>0.1725</v>
       </c>
       <c r="M149">
         <v>0.91575</v>
@@ -9408,19 +9411,19 @@
         <v>5540503</v>
       </c>
       <c r="Q149" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R149" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S149" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T149" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U149" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9434,7 +9437,7 @@
         <v>55</v>
       </c>
       <c r="E150" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F150">
         <v>0.59</v>
@@ -9449,7 +9452,7 @@
         <v>1.39565</v>
       </c>
       <c r="L150">
-        <v>0.235</v>
+        <v>0.28</v>
       </c>
       <c r="M150">
         <v>0.96635</v>
@@ -9464,19 +9467,19 @@
         <v>5540503</v>
       </c>
       <c r="Q150" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R150" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S150" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T150" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U150" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9490,7 +9493,7 @@
         <v>55</v>
       </c>
       <c r="E151" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F151">
         <v>0.59</v>
@@ -9505,7 +9508,7 @@
         <v>1.39565</v>
       </c>
       <c r="L151">
-        <v>0.235</v>
+        <v>0.28</v>
       </c>
       <c r="M151">
         <v>0.96635</v>
@@ -9520,19 +9523,19 @@
         <v>5540503</v>
       </c>
       <c r="Q151" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R151" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S151" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T151" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U151" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9546,7 +9549,7 @@
         <v>55</v>
       </c>
       <c r="E152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F152">
         <v>0.014</v>
@@ -9576,19 +9579,19 @@
         <v>5540503</v>
       </c>
       <c r="Q152" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R152" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S152" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T152" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U152" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9602,7 +9605,7 @@
         <v>55</v>
       </c>
       <c r="E153" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F153">
         <v>0.014</v>
@@ -9632,19 +9635,19 @@
         <v>5540503</v>
       </c>
       <c r="Q153" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R153" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S153" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T153" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U153" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9661,7 +9664,7 @@
         <v>56</v>
       </c>
       <c r="E154" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F154">
         <v>0.55</v>
@@ -9691,16 +9694,16 @@
         <v>5540503</v>
       </c>
       <c r="Q154" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R154" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S154" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T154" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -9717,7 +9720,7 @@
         <v>56</v>
       </c>
       <c r="E155" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F155">
         <v>2.925</v>
@@ -9732,7 +9735,7 @@
         <v>62.7</v>
       </c>
       <c r="L155">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="M155">
         <v>10.33</v>
@@ -9747,19 +9750,19 @@
         <v>5540503</v>
       </c>
       <c r="Q155" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R155" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S155" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T155" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U155" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -9776,7 +9779,7 @@
         <v>56</v>
       </c>
       <c r="E156" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F156">
         <v>1.7</v>
@@ -9791,7 +9794,7 @@
         <v>4.215</v>
       </c>
       <c r="L156">
-        <v>2.48</v>
+        <v>2.23</v>
       </c>
       <c r="M156">
         <v>2.785</v>
@@ -9806,19 +9809,19 @@
         <v>5540503</v>
       </c>
       <c r="Q156" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R156" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S156" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T156" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U156" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -9835,13 +9838,13 @@
         <v>56</v>
       </c>
       <c r="E157" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F157">
         <v>0.01</v>
       </c>
       <c r="G157">
-        <v>0.0120095572150401</v>
+        <v>0.0120070967968147</v>
       </c>
       <c r="H157">
         <v>0.037</v>
@@ -9865,19 +9868,19 @@
         <v>5540503</v>
       </c>
       <c r="Q157" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R157" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S157" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T157" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U157" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -9894,13 +9897,13 @@
         <v>56</v>
       </c>
       <c r="E158" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F158">
         <v>0.01</v>
       </c>
       <c r="G158">
-        <v>0.0120095572150401</v>
+        <v>0.0120070967968147</v>
       </c>
       <c r="H158">
         <v>0.037</v>
@@ -9924,19 +9927,19 @@
         <v>5540503</v>
       </c>
       <c r="Q158" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R158" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S158" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T158" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U158" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -9953,7 +9956,7 @@
         <v>56</v>
       </c>
       <c r="E159" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F159">
         <v>171</v>
@@ -9974,7 +9977,7 @@
         <v>40.8163265306122</v>
       </c>
       <c r="L159">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="M159">
         <v>566.8</v>
@@ -9989,19 +9992,19 @@
         <v>5540503</v>
       </c>
       <c r="Q159" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R159" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S159" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T159" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U159" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10018,7 +10021,7 @@
         <v>56</v>
       </c>
       <c r="E160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F160">
         <v>171</v>
@@ -10039,7 +10042,7 @@
         <v>40.8163265306122</v>
       </c>
       <c r="L160">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="M160">
         <v>566.8</v>
@@ -10054,19 +10057,19 @@
         <v>5540503</v>
       </c>
       <c r="Q160" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R160" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S160" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T160" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U160" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10083,7 +10086,7 @@
         <v>56</v>
       </c>
       <c r="E161" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F161">
         <v>171</v>
@@ -10104,7 +10107,7 @@
         <v>40.8163265306122</v>
       </c>
       <c r="L161">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="M161">
         <v>566.8</v>
@@ -10119,19 +10122,19 @@
         <v>5540503</v>
       </c>
       <c r="Q161" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R161" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S161" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T161" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U161" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10148,7 +10151,7 @@
         <v>56</v>
       </c>
       <c r="E162" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F162">
         <v>171</v>
@@ -10169,7 +10172,7 @@
         <v>40.8163265306122</v>
       </c>
       <c r="L162">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="M162">
         <v>566.8</v>
@@ -10184,19 +10187,19 @@
         <v>5540503</v>
       </c>
       <c r="Q162" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R162" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S162" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T162" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U162" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10213,7 +10216,7 @@
         <v>56</v>
       </c>
       <c r="E163" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F163">
         <v>114</v>
@@ -10243,16 +10246,16 @@
         <v>5540503</v>
       </c>
       <c r="Q163" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R163" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S163" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T163" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -10269,13 +10272,13 @@
         <v>56</v>
       </c>
       <c r="E164" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F164">
-        <v>0.00273</v>
+        <v>0.00268</v>
       </c>
       <c r="G164">
-        <v>0.0040118804433225</v>
+        <v>0.0039873787129373</v>
       </c>
       <c r="H164">
         <v>0.0227589915651739</v>
@@ -10284,7 +10287,7 @@
         <v>0.01021</v>
       </c>
       <c r="L164">
-        <v>0.00313</v>
+        <v>0.00259</v>
       </c>
       <c r="M164">
         <v>0.00714</v>
@@ -10299,19 +10302,19 @@
         <v>5540503</v>
       </c>
       <c r="Q164" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R164" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S164" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T164" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U164" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10328,13 +10331,13 @@
         <v>56</v>
       </c>
       <c r="E165" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F165">
-        <v>0.00273</v>
+        <v>0.00268</v>
       </c>
       <c r="G165">
-        <v>0.0040118804433225</v>
+        <v>0.0039873787129373</v>
       </c>
       <c r="H165">
         <v>0.0227589915651739</v>
@@ -10343,7 +10346,7 @@
         <v>0.01021</v>
       </c>
       <c r="L165">
-        <v>0.00313</v>
+        <v>0.00259</v>
       </c>
       <c r="M165">
         <v>0.00714</v>
@@ -10358,19 +10361,19 @@
         <v>5540503</v>
       </c>
       <c r="Q165" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R165" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S165" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T165" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U165" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10387,13 +10390,13 @@
         <v>56</v>
       </c>
       <c r="E166" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F166">
         <v>0.532</v>
       </c>
       <c r="G166">
-        <v>0.547886319374624</v>
+        <v>0.547874605064035</v>
       </c>
       <c r="H166">
         <v>1.51</v>
@@ -10402,7 +10405,7 @@
         <v>1.1995</v>
       </c>
       <c r="L166">
-        <v>0.137</v>
+        <v>0.1676</v>
       </c>
       <c r="M166">
         <v>0.91568</v>
@@ -10417,19 +10420,19 @@
         <v>5540503</v>
       </c>
       <c r="Q166" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R166" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S166" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T166" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U166" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10446,13 +10449,13 @@
         <v>56</v>
       </c>
       <c r="E167" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F167">
         <v>0.532</v>
       </c>
       <c r="G167">
-        <v>0.547886319374624</v>
+        <v>0.547874605064035</v>
       </c>
       <c r="H167">
         <v>1.51</v>
@@ -10461,7 +10464,7 @@
         <v>1.1995</v>
       </c>
       <c r="L167">
-        <v>0.137</v>
+        <v>0.1676</v>
       </c>
       <c r="M167">
         <v>0.91568</v>
@@ -10476,19 +10479,19 @@
         <v>5540503</v>
       </c>
       <c r="Q167" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R167" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S167" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T167" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U167" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -10505,7 +10508,7 @@
         <v>56</v>
       </c>
       <c r="E168" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F168">
         <v>6.56</v>
@@ -10535,16 +10538,16 @@
         <v>5540503</v>
       </c>
       <c r="Q168" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R168" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S168" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T168" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -10558,13 +10561,13 @@
         <v>56</v>
       </c>
       <c r="E169" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F169">
         <v>0.535</v>
       </c>
       <c r="G169">
-        <v>0.558641516492357</v>
+        <v>0.558605281112256</v>
       </c>
       <c r="H169">
         <v>1.515</v>
@@ -10573,7 +10576,7 @@
         <v>1.2055</v>
       </c>
       <c r="L169">
-        <v>0.15</v>
+        <v>0.1725</v>
       </c>
       <c r="M169">
         <v>0.925</v>
@@ -10588,19 +10591,19 @@
         <v>5540503</v>
       </c>
       <c r="Q169" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R169" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S169" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T169" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U169" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -10614,13 +10617,13 @@
         <v>56</v>
       </c>
       <c r="E170" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F170">
         <v>0.535</v>
       </c>
       <c r="G170">
-        <v>0.558641516492357</v>
+        <v>0.558605281112256</v>
       </c>
       <c r="H170">
         <v>1.515</v>
@@ -10629,7 +10632,7 @@
         <v>1.2055</v>
       </c>
       <c r="L170">
-        <v>0.15</v>
+        <v>0.1725</v>
       </c>
       <c r="M170">
         <v>0.925</v>
@@ -10644,19 +10647,19 @@
         <v>5540503</v>
       </c>
       <c r="Q170" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R170" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S170" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T170" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U170" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -10670,7 +10673,7 @@
         <v>56</v>
       </c>
       <c r="E171" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F171">
         <v>0.61</v>
@@ -10685,7 +10688,7 @@
         <v>1.356</v>
       </c>
       <c r="L171">
-        <v>0.235</v>
+        <v>0.28</v>
       </c>
       <c r="M171">
         <v>0.97119</v>
@@ -10700,19 +10703,19 @@
         <v>5540503</v>
       </c>
       <c r="Q171" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R171" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S171" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T171" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U171" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -10726,7 +10729,7 @@
         <v>56</v>
       </c>
       <c r="E172" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F172">
         <v>0.61</v>
@@ -10741,7 +10744,7 @@
         <v>1.356</v>
       </c>
       <c r="L172">
-        <v>0.235</v>
+        <v>0.28</v>
       </c>
       <c r="M172">
         <v>0.97119</v>
@@ -10756,19 +10759,19 @@
         <v>5540503</v>
       </c>
       <c r="Q172" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R172" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S172" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T172" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U172" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -10782,7 +10785,7 @@
         <v>56</v>
       </c>
       <c r="E173" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F173">
         <v>0.015</v>
@@ -10812,19 +10815,19 @@
         <v>5540503</v>
       </c>
       <c r="Q173" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R173" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S173" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T173" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U173" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -10838,7 +10841,7 @@
         <v>56</v>
       </c>
       <c r="E174" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F174">
         <v>0.015</v>
@@ -10868,19 +10871,19 @@
         <v>5540503</v>
       </c>
       <c r="Q174" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R174" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S174" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T174" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U174" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -10897,7 +10900,7 @@
         <v>57</v>
       </c>
       <c r="E175" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F175">
         <v>0.5725</v>
@@ -10927,16 +10930,16 @@
         <v>5540503</v>
       </c>
       <c r="Q175" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R175" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S175" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T175" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -10953,7 +10956,7 @@
         <v>57</v>
       </c>
       <c r="E176" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F176">
         <v>3.15</v>
@@ -10968,7 +10971,7 @@
         <v>68</v>
       </c>
       <c r="L176">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M176">
         <v>21.56</v>
@@ -10983,19 +10986,19 @@
         <v>5540503</v>
       </c>
       <c r="Q176" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R176" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S176" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T176" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U176" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -11012,7 +11015,7 @@
         <v>57</v>
       </c>
       <c r="E177" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F177">
         <v>1.36</v>
@@ -11027,7 +11030,7 @@
         <v>2.92</v>
       </c>
       <c r="L177">
-        <v>2.085</v>
+        <v>2.23</v>
       </c>
       <c r="M177">
         <v>2.702</v>
@@ -11042,19 +11045,19 @@
         <v>5540503</v>
       </c>
       <c r="Q177" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R177" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S177" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T177" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U177" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -11071,13 +11074,13 @@
         <v>57</v>
       </c>
       <c r="E178" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F178">
         <v>0.011</v>
       </c>
       <c r="G178">
-        <v>0.0132829271226207</v>
+        <v>0.0132796687309168</v>
       </c>
       <c r="H178">
         <v>0.037</v>
@@ -11086,7 +11089,7 @@
         <v>0.0303</v>
       </c>
       <c r="L178">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="M178">
         <v>0.01926</v>
@@ -11101,19 +11104,19 @@
         <v>5540503</v>
       </c>
       <c r="Q178" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R178" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S178" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T178" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U178" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="179" spans="1:21">
@@ -11130,13 +11133,13 @@
         <v>57</v>
       </c>
       <c r="E179" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F179">
         <v>0.011</v>
       </c>
       <c r="G179">
-        <v>0.0132829271226207</v>
+        <v>0.0132796687309168</v>
       </c>
       <c r="H179">
         <v>0.037</v>
@@ -11145,7 +11148,7 @@
         <v>0.0303</v>
       </c>
       <c r="L179">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="M179">
         <v>0.01926</v>
@@ -11160,19 +11163,19 @@
         <v>5540503</v>
       </c>
       <c r="Q179" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R179" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S179" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T179" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U179" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="180" spans="1:21">
@@ -11189,7 +11192,7 @@
         <v>57</v>
       </c>
       <c r="E180" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F180">
         <v>170</v>
@@ -11210,7 +11213,7 @@
         <v>43.2432432432432</v>
       </c>
       <c r="L180">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="M180">
         <v>482.1</v>
@@ -11225,19 +11228,19 @@
         <v>5540503</v>
       </c>
       <c r="Q180" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R180" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S180" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T180" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U180" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -11254,7 +11257,7 @@
         <v>57</v>
       </c>
       <c r="E181" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F181">
         <v>170</v>
@@ -11275,7 +11278,7 @@
         <v>43.2432432432432</v>
       </c>
       <c r="L181">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="M181">
         <v>482.1</v>
@@ -11290,19 +11293,19 @@
         <v>5540503</v>
       </c>
       <c r="Q181" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R181" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S181" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T181" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U181" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="182" spans="1:21">
@@ -11319,7 +11322,7 @@
         <v>57</v>
       </c>
       <c r="E182" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F182">
         <v>170</v>
@@ -11340,7 +11343,7 @@
         <v>43.2432432432432</v>
       </c>
       <c r="L182">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="M182">
         <v>482.1</v>
@@ -11355,19 +11358,19 @@
         <v>5540503</v>
       </c>
       <c r="Q182" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R182" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S182" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T182" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U182" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="183" spans="1:21">
@@ -11384,7 +11387,7 @@
         <v>57</v>
       </c>
       <c r="E183" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F183">
         <v>170</v>
@@ -11405,7 +11408,7 @@
         <v>43.2432432432432</v>
       </c>
       <c r="L183">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="M183">
         <v>482.1</v>
@@ -11420,19 +11423,19 @@
         <v>5540503</v>
       </c>
       <c r="Q183" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R183" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S183" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T183" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U183" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="184" spans="1:21">
@@ -11449,7 +11452,7 @@
         <v>57</v>
       </c>
       <c r="E184" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F184">
         <v>114.88</v>
@@ -11479,16 +11482,16 @@
         <v>5540503</v>
       </c>
       <c r="Q184" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R184" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S184" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T184" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="185" spans="1:21">
@@ -11505,13 +11508,13 @@
         <v>57</v>
       </c>
       <c r="E185" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F185">
-        <v>0.00365</v>
+        <v>0.00362</v>
       </c>
       <c r="G185">
-        <v>0.0047535087978478</v>
+        <v>0.004724248515305</v>
       </c>
       <c r="H185">
         <v>0.0227589915651739</v>
@@ -11520,7 +11523,7 @@
         <v>0.01085</v>
       </c>
       <c r="L185">
-        <v>0.00369</v>
+        <v>0.00359</v>
       </c>
       <c r="M185">
         <v>0.00716</v>
@@ -11535,19 +11538,19 @@
         <v>5540503</v>
       </c>
       <c r="Q185" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R185" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S185" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T185" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U185" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="186" spans="1:21">
@@ -11564,13 +11567,13 @@
         <v>57</v>
       </c>
       <c r="E186" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F186">
-        <v>0.00365</v>
+        <v>0.00362</v>
       </c>
       <c r="G186">
-        <v>0.0047535087978478</v>
+        <v>0.004724248515305</v>
       </c>
       <c r="H186">
         <v>0.0227589915651739</v>
@@ -11579,7 +11582,7 @@
         <v>0.01085</v>
       </c>
       <c r="L186">
-        <v>0.00369</v>
+        <v>0.00359</v>
       </c>
       <c r="M186">
         <v>0.00716</v>
@@ -11594,19 +11597,19 @@
         <v>5540503</v>
       </c>
       <c r="Q186" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R186" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S186" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T186" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U186" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="187" spans="1:21">
@@ -11623,7 +11626,7 @@
         <v>57</v>
       </c>
       <c r="E187" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F187">
         <v>0.541</v>
@@ -11638,7 +11641,7 @@
         <v>1.3135</v>
       </c>
       <c r="L187">
-        <v>0.1495</v>
+        <v>0.177</v>
       </c>
       <c r="M187">
         <v>0.92257</v>
@@ -11653,19 +11656,19 @@
         <v>5540503</v>
       </c>
       <c r="Q187" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R187" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S187" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T187" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U187" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="188" spans="1:21">
@@ -11682,7 +11685,7 @@
         <v>57</v>
       </c>
       <c r="E188" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F188">
         <v>0.541</v>
@@ -11697,7 +11700,7 @@
         <v>1.3135</v>
       </c>
       <c r="L188">
-        <v>0.1495</v>
+        <v>0.177</v>
       </c>
       <c r="M188">
         <v>0.92257</v>
@@ -11712,19 +11715,19 @@
         <v>5540503</v>
       </c>
       <c r="Q188" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R188" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S188" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T188" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U188" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="189" spans="1:21">
@@ -11741,7 +11744,7 @@
         <v>57</v>
       </c>
       <c r="E189" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F189">
         <v>6.735</v>
@@ -11771,16 +11774,16 @@
         <v>5540503</v>
       </c>
       <c r="Q189" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R189" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S189" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T189" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="190" spans="1:21">
@@ -11794,7 +11797,7 @@
         <v>57</v>
       </c>
       <c r="E190" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F190">
         <v>0.545</v>
@@ -11809,7 +11812,7 @@
         <v>1.3315</v>
       </c>
       <c r="L190">
-        <v>0.16</v>
+        <v>0.185</v>
       </c>
       <c r="M190">
         <v>0.9292</v>
@@ -11824,19 +11827,19 @@
         <v>5540503</v>
       </c>
       <c r="Q190" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R190" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S190" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T190" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U190" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="191" spans="1:21">
@@ -11850,7 +11853,7 @@
         <v>57</v>
       </c>
       <c r="E191" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F191">
         <v>0.545</v>
@@ -11865,7 +11868,7 @@
         <v>1.3315</v>
       </c>
       <c r="L191">
-        <v>0.16</v>
+        <v>0.185</v>
       </c>
       <c r="M191">
         <v>0.9292</v>
@@ -11880,19 +11883,19 @@
         <v>5540503</v>
       </c>
       <c r="Q191" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R191" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S191" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T191" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U191" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="192" spans="1:21">
@@ -11906,7 +11909,7 @@
         <v>57</v>
       </c>
       <c r="E192" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F192">
         <v>0.61</v>
@@ -11921,7 +11924,7 @@
         <v>1.428</v>
       </c>
       <c r="L192">
-        <v>0.235</v>
+        <v>0.32</v>
       </c>
       <c r="M192">
         <v>0.9742</v>
@@ -11936,19 +11939,19 @@
         <v>5540503</v>
       </c>
       <c r="Q192" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R192" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S192" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T192" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U192" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="193" spans="1:21">
@@ -11962,7 +11965,7 @@
         <v>57</v>
       </c>
       <c r="E193" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F193">
         <v>0.61</v>
@@ -11977,7 +11980,7 @@
         <v>1.428</v>
       </c>
       <c r="L193">
-        <v>0.235</v>
+        <v>0.32</v>
       </c>
       <c r="M193">
         <v>0.9742</v>
@@ -11992,19 +11995,19 @@
         <v>5540503</v>
       </c>
       <c r="Q193" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R193" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S193" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T193" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U193" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="194" spans="1:21">
@@ -12018,7 +12021,7 @@
         <v>57</v>
       </c>
       <c r="E194" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F194">
         <v>0.016</v>
@@ -12033,7 +12036,7 @@
         <v>0.07825</v>
       </c>
       <c r="L194">
-        <v>0.0135</v>
+        <v>0.013</v>
       </c>
       <c r="M194">
         <v>0.04268</v>
@@ -12048,19 +12051,19 @@
         <v>5540503</v>
       </c>
       <c r="Q194" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R194" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S194" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T194" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U194" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="195" spans="1:21">
@@ -12074,7 +12077,7 @@
         <v>57</v>
       </c>
       <c r="E195" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F195">
         <v>0.016</v>
@@ -12089,7 +12092,7 @@
         <v>0.07825</v>
       </c>
       <c r="L195">
-        <v>0.0135</v>
+        <v>0.013</v>
       </c>
       <c r="M195">
         <v>0.04268</v>
@@ -12104,19 +12107,19 @@
         <v>5540503</v>
       </c>
       <c r="Q195" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R195" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S195" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T195" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U195" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="196" spans="1:21">
@@ -12133,7 +12136,7 @@
         <v>58</v>
       </c>
       <c r="E196" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F196">
         <v>4.425</v>
@@ -12148,7 +12151,7 @@
         <v>73</v>
       </c>
       <c r="L196">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="M196">
         <v>28.58</v>
@@ -12163,19 +12166,19 @@
         <v>5540503</v>
       </c>
       <c r="Q196" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R196" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S196" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T196" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U196" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="197" spans="1:21">
@@ -12192,7 +12195,7 @@
         <v>59</v>
       </c>
       <c r="E197" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F197">
         <v>5.25</v>
@@ -12207,7 +12210,7 @@
         <v>67</v>
       </c>
       <c r="L197">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M197">
         <v>26.66</v>
@@ -12222,19 +12225,19 @@
         <v>5540503</v>
       </c>
       <c r="Q197" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R197" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S197" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T197" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U197" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="198" spans="1:21">
@@ -12251,13 +12254,13 @@
         <v>60</v>
       </c>
       <c r="E198" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F198">
         <v>3.65</v>
       </c>
       <c r="G198">
-        <v>11.246463358376</v>
+        <v>11.2457799528439</v>
       </c>
       <c r="H198">
         <v>70</v>
@@ -12266,7 +12269,7 @@
         <v>59</v>
       </c>
       <c r="L198">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="M198">
         <v>20.66</v>
@@ -12281,19 +12284,78 @@
         <v>5540503</v>
       </c>
       <c r="Q198" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R198" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S198" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T198" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U198" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21">
+      <c r="A199" t="s">
+        <v>21</v>
+      </c>
+      <c r="B199" t="s">
+        <v>37</v>
+      </c>
+      <c r="C199" t="s">
+        <v>43</v>
+      </c>
+      <c r="D199" t="s">
+        <v>61</v>
+      </c>
+      <c r="E199" t="s">
+        <v>62</v>
+      </c>
+      <c r="F199">
+        <v>3.35</v>
+      </c>
+      <c r="G199">
+        <v>8.504468347500501</v>
+      </c>
+      <c r="H199">
+        <v>70</v>
+      </c>
+      <c r="I199">
+        <v>49.05</v>
+      </c>
+      <c r="L199">
+        <v>4.425</v>
+      </c>
+      <c r="M199">
+        <v>11.605</v>
+      </c>
+      <c r="N199">
+        <v>31.79</v>
+      </c>
+      <c r="O199">
+        <v>1860701</v>
+      </c>
+      <c r="P199">
+        <v>5540503</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>63</v>
+      </c>
+      <c r="R199" t="s">
+        <v>64</v>
+      </c>
+      <c r="S199" t="s">
+        <v>65</v>
+      </c>
+      <c r="T199" t="s">
+        <v>66</v>
+      </c>
+      <c r="U199" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
